--- a/Table/client/lua/exe/temp/T 天机印套装表.xlsx
+++ b/Table/client/lua/exe/temp/T 天机印套装表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\td1_2019_and_hg\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -111,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="161">
   <si>
     <t>套装ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -219,10 +225,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>分类</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -524,6 +526,271 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>凡.契約印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>優.耀魄印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍.鬥魂印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>絕.渾沌印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>絕.不朽印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>絕.幻月印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>絕.星辰印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙.天啟印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神.女媧印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神.盤古印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神.誅天印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>범. 계약인장</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>범. 계약인장</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>우수. 요백인장</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>진귀. 무혼인장</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>진귀. 투혼인장</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>진귀. 서혼인장</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>절대. 혼돈인장</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>절대. 불후인장</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>절대. 환월인장</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>절대. 성진인장</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>선인. 천괴인장</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>선인. 천겁인장</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>선인. 천강인장</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>선인. 천계인장</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>신. 여와인장</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>신. 복희인장</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>신. 반고인장</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>신. 주천인장</t>
+    </r>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -533,7 +800,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,6 +883,26 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1173,26 +1460,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC69"/>
+  <dimension ref="A1:AD69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="9" style="9"/>
-    <col min="4" max="6" width="9" style="22"/>
-    <col min="7" max="7" width="63.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="6.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="5.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="9"/>
+    <col min="4" max="5" width="9" style="22"/>
+    <col min="6" max="6" width="14.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="22"/>
+    <col min="8" max="8" width="63.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="5.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1203,54 +1492,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="5">
         <v>2</v>
@@ -1262,25 +1552,25 @@
         <v>101</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5">
-        <v>179</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="5">
         <v>179</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5">
+        <v>179</v>
+      </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="5">
-        <v>57</v>
-      </c>
+      <c r="N2" s="5"/>
       <c r="O2" s="5">
         <v>57</v>
       </c>
@@ -1293,7 +1583,9 @@
       <c r="R2" s="5">
         <v>57</v>
       </c>
-      <c r="S2" s="8"/>
+      <c r="S2" s="5">
+        <v>57</v>
+      </c>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
@@ -1304,10 +1596,11 @@
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AD2" s="8"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
@@ -1319,25 +1612,25 @@
         <v>101</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7">
+        <v>143</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7">
         <v>5377</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="5">
         <v>268</v>
       </c>
-      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5">
-        <v>86</v>
-      </c>
+      <c r="N3" s="5"/>
       <c r="O3" s="5">
         <v>86</v>
       </c>
@@ -1350,7 +1643,9 @@
       <c r="R3" s="5">
         <v>86</v>
       </c>
-      <c r="S3" s="8"/>
+      <c r="S3" s="5">
+        <v>86</v>
+      </c>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
@@ -1361,10 +1656,11 @@
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AD3" s="8"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="5">
         <v>6</v>
@@ -1376,25 +1672,25 @@
         <v>101</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5">
-        <v>219</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="5">
         <v>219</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5">
+        <v>219</v>
+      </c>
       <c r="M4" s="5"/>
-      <c r="N4" s="5">
-        <v>70</v>
-      </c>
+      <c r="N4" s="5"/>
       <c r="O4" s="5">
         <v>70</v>
       </c>
@@ -1407,7 +1703,9 @@
       <c r="R4" s="5">
         <v>70</v>
       </c>
-      <c r="S4" s="8"/>
+      <c r="S4" s="5">
+        <v>70</v>
+      </c>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
@@ -1418,10 +1716,11 @@
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AD4" s="8"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="5">
         <v>8</v>
@@ -1433,27 +1732,27 @@
         <v>101</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="7">
+        <v>143</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="7">
         <v>6572</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>328</v>
       </c>
-      <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5">
-        <v>105</v>
-      </c>
+      <c r="N5" s="5"/>
       <c r="O5" s="5">
         <v>105</v>
       </c>
@@ -1466,7 +1765,9 @@
       <c r="R5" s="5">
         <v>105</v>
       </c>
-      <c r="S5" s="8"/>
+      <c r="S5" s="5">
+        <v>105</v>
+      </c>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
@@ -1477,8 +1778,9 @@
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AD5" s="8"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1492,25 +1794,25 @@
         <v>201</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5">
-        <v>398</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="5">
         <v>398</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5">
+        <v>398</v>
+      </c>
       <c r="M6" s="5"/>
-      <c r="N6" s="5">
-        <v>127</v>
-      </c>
+      <c r="N6" s="5"/>
       <c r="O6" s="5">
         <v>127</v>
       </c>
@@ -1523,7 +1825,9 @@
       <c r="R6" s="5">
         <v>127</v>
       </c>
-      <c r="S6" s="8"/>
+      <c r="S6" s="5">
+        <v>127</v>
+      </c>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
@@ -1534,10 +1838,11 @@
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AD6" s="8"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="5">
         <v>4</v>
@@ -1549,25 +1854,25 @@
         <v>201</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="7">
+        <v>144</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="7">
         <v>11966</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>598</v>
       </c>
-      <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="5">
-        <v>191</v>
-      </c>
+      <c r="N7" s="5"/>
       <c r="O7" s="5">
         <v>191</v>
       </c>
@@ -1580,7 +1885,9 @@
       <c r="R7" s="5">
         <v>191</v>
       </c>
-      <c r="S7" s="8"/>
+      <c r="S7" s="5">
+        <v>191</v>
+      </c>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
@@ -1591,10 +1898,11 @@
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AD7" s="8"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
@@ -1606,25 +1914,25 @@
         <v>201</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5">
-        <v>487</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="5">
         <v>487</v>
       </c>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5">
+        <v>487</v>
+      </c>
       <c r="M8" s="5"/>
-      <c r="N8" s="5">
-        <v>156</v>
-      </c>
+      <c r="N8" s="5"/>
       <c r="O8" s="5">
         <v>156</v>
       </c>
@@ -1637,7 +1945,9 @@
       <c r="R8" s="5">
         <v>156</v>
       </c>
-      <c r="S8" s="8"/>
+      <c r="S8" s="5">
+        <v>156</v>
+      </c>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
@@ -1648,10 +1958,11 @@
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AD8" s="8"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="5">
         <v>8</v>
@@ -1663,27 +1974,27 @@
         <v>201</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="7">
+        <v>144</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="7">
         <v>14625</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>731</v>
       </c>
-      <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="5">
-        <v>234</v>
-      </c>
+      <c r="N9" s="5"/>
       <c r="O9" s="5">
         <v>234</v>
       </c>
@@ -1696,7 +2007,9 @@
       <c r="R9" s="5">
         <v>234</v>
       </c>
-      <c r="S9" s="8"/>
+      <c r="S9" s="5">
+        <v>234</v>
+      </c>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
@@ -1707,10 +2020,11 @@
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
-    </row>
-    <row r="10" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD9" s="8"/>
+    </row>
+    <row r="10" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5">
         <v>2</v>
@@ -1722,25 +2036,25 @@
         <v>301</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5">
-        <v>668</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="5">
         <v>668</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5">
+        <v>668</v>
+      </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="5">
-        <v>213</v>
-      </c>
+      <c r="N10" s="5"/>
       <c r="O10" s="5">
         <v>213</v>
       </c>
@@ -1753,7 +2067,9 @@
       <c r="R10" s="5">
         <v>213</v>
       </c>
-      <c r="S10" s="8"/>
+      <c r="S10" s="5">
+        <v>213</v>
+      </c>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
@@ -1764,10 +2080,11 @@
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
-    </row>
-    <row r="11" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD10" s="8"/>
+    </row>
+    <row r="11" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="5">
         <v>4</v>
@@ -1779,25 +2096,25 @@
         <v>301</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="7">
+        <v>145</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="7">
         <v>20061</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <v>1003</v>
       </c>
-      <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5">
-        <v>320</v>
-      </c>
+      <c r="N11" s="5"/>
       <c r="O11" s="5">
         <v>320</v>
       </c>
@@ -1810,7 +2127,9 @@
       <c r="R11" s="5">
         <v>320</v>
       </c>
-      <c r="S11" s="8"/>
+      <c r="S11" s="5">
+        <v>320</v>
+      </c>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
@@ -1821,10 +2140,11 @@
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
-    </row>
-    <row r="12" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD11" s="8"/>
+    </row>
+    <row r="12" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5">
         <v>6</v>
@@ -1836,25 +2156,25 @@
         <v>301</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5">
-        <v>817</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="5">
         <v>817</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5">
+        <v>817</v>
+      </c>
       <c r="M12" s="5"/>
-      <c r="N12" s="5">
-        <v>261</v>
-      </c>
+      <c r="N12" s="5"/>
       <c r="O12" s="5">
         <v>261</v>
       </c>
@@ -1867,7 +2187,9 @@
       <c r="R12" s="5">
         <v>261</v>
       </c>
-      <c r="S12" s="8"/>
+      <c r="S12" s="5">
+        <v>261</v>
+      </c>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
@@ -1878,10 +2200,11 @@
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
-    </row>
-    <row r="13" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD12" s="8"/>
+    </row>
+    <row r="13" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5">
         <v>8</v>
@@ -1893,27 +2216,27 @@
         <v>301</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="7">
+        <v>145</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="7">
         <v>24519</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="5">
         <v>1225</v>
       </c>
-      <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="5">
-        <v>392</v>
-      </c>
+      <c r="N13" s="5"/>
       <c r="O13" s="5">
         <v>392</v>
       </c>
@@ -1926,7 +2249,9 @@
       <c r="R13" s="5">
         <v>392</v>
       </c>
-      <c r="S13" s="8"/>
+      <c r="S13" s="5">
+        <v>392</v>
+      </c>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
@@ -1937,10 +2262,11 @@
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
-    </row>
-    <row r="14" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD13" s="8"/>
+    </row>
+    <row r="14" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
@@ -1952,25 +2278,25 @@
         <v>302</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5">
-        <v>999</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="5">
         <v>999</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5">
+        <v>999</v>
+      </c>
       <c r="M14" s="5"/>
-      <c r="N14" s="5">
-        <v>319</v>
-      </c>
+      <c r="N14" s="5"/>
       <c r="O14" s="5">
         <v>319</v>
       </c>
@@ -1983,7 +2309,9 @@
       <c r="R14" s="5">
         <v>319</v>
       </c>
-      <c r="S14" s="8"/>
+      <c r="S14" s="5">
+        <v>319</v>
+      </c>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
@@ -1994,10 +2322,11 @@
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
-    </row>
-    <row r="15" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD14" s="8"/>
+    </row>
+    <row r="15" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="5">
         <v>4</v>
@@ -2009,25 +2338,25 @@
         <v>302</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="5">
+        <v>146</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="36"/>
+      <c r="I15" s="5">
         <v>29996</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J15" s="5">
         <v>1499</v>
       </c>
-      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="5">
-        <v>479</v>
-      </c>
+      <c r="N15" s="5"/>
       <c r="O15" s="5">
         <v>479</v>
       </c>
@@ -2040,7 +2369,9 @@
       <c r="R15" s="5">
         <v>479</v>
       </c>
-      <c r="S15" s="8"/>
+      <c r="S15" s="5">
+        <v>479</v>
+      </c>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
@@ -2051,10 +2382,11 @@
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
-    </row>
-    <row r="16" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD15" s="8"/>
+    </row>
+    <row r="16" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5">
         <v>6</v>
@@ -2066,25 +2398,25 @@
         <v>302</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="5"/>
+        <v>146</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="36"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="5">
-        <v>1222</v>
-      </c>
+      <c r="J16" s="5"/>
       <c r="K16" s="5">
         <v>1222</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5">
+        <v>1222</v>
+      </c>
       <c r="M16" s="5"/>
-      <c r="N16" s="5">
-        <v>391</v>
-      </c>
+      <c r="N16" s="5"/>
       <c r="O16" s="5">
         <v>391</v>
       </c>
@@ -2097,7 +2429,9 @@
       <c r="R16" s="5">
         <v>391</v>
       </c>
-      <c r="S16" s="8"/>
+      <c r="S16" s="5">
+        <v>391</v>
+      </c>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
@@ -2108,10 +2442,11 @@
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
-    </row>
-    <row r="17" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD16" s="8"/>
+    </row>
+    <row r="17" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="5">
         <v>8</v>
@@ -2123,27 +2458,27 @@
         <v>302</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="5">
+        <v>146</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="5">
         <v>36662</v>
       </c>
-      <c r="I17" s="5">
+      <c r="J17" s="5">
         <v>1833</v>
       </c>
-      <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="5">
-        <v>586</v>
-      </c>
+      <c r="N17" s="5"/>
       <c r="O17" s="5">
         <v>586</v>
       </c>
@@ -2156,7 +2491,9 @@
       <c r="R17" s="5">
         <v>586</v>
       </c>
-      <c r="S17" s="8"/>
+      <c r="S17" s="5">
+        <v>586</v>
+      </c>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
@@ -2167,10 +2504,11 @@
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
-    </row>
-    <row r="18" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD17" s="8"/>
+    </row>
+    <row r="18" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="5">
         <v>2</v>
@@ -2182,25 +2520,25 @@
         <v>303</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5"/>
+        <v>147</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="6"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="5">
-        <v>1404</v>
-      </c>
+      <c r="J18" s="5"/>
       <c r="K18" s="5">
         <v>1404</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5">
+        <v>1404</v>
+      </c>
       <c r="M18" s="5"/>
-      <c r="N18" s="5">
-        <v>449</v>
-      </c>
+      <c r="N18" s="5"/>
       <c r="O18" s="5">
         <v>449</v>
       </c>
@@ -2213,7 +2551,9 @@
       <c r="R18" s="5">
         <v>449</v>
       </c>
-      <c r="S18" s="8"/>
+      <c r="S18" s="5">
+        <v>449</v>
+      </c>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
@@ -2224,10 +2564,11 @@
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
-    </row>
-    <row r="19" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD18" s="8"/>
+    </row>
+    <row r="19" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="5">
         <v>4</v>
@@ -2239,25 +2580,25 @@
         <v>303</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="5">
+        <v>147</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="36"/>
+      <c r="I19" s="5">
         <v>42147</v>
       </c>
-      <c r="I19" s="5">
+      <c r="J19" s="5">
         <v>2107</v>
       </c>
-      <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="5">
-        <v>674</v>
-      </c>
+      <c r="N19" s="5"/>
       <c r="O19" s="5">
         <v>674</v>
       </c>
@@ -2270,7 +2611,9 @@
       <c r="R19" s="5">
         <v>674</v>
       </c>
-      <c r="S19" s="8"/>
+      <c r="S19" s="5">
+        <v>674</v>
+      </c>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
@@ -2281,10 +2624,11 @@
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
-    </row>
-    <row r="20" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD19" s="8"/>
+    </row>
+    <row r="20" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="5">
         <v>6</v>
@@ -2296,25 +2640,25 @@
         <v>303</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5"/>
+        <v>147</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="6"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="5">
-        <v>1717</v>
-      </c>
+      <c r="J20" s="5"/>
       <c r="K20" s="5">
         <v>1717</v>
       </c>
-      <c r="L20" s="5"/>
+      <c r="L20" s="5">
+        <v>1717</v>
+      </c>
       <c r="M20" s="5"/>
-      <c r="N20" s="5">
-        <v>549</v>
-      </c>
+      <c r="N20" s="5"/>
       <c r="O20" s="5">
         <v>549</v>
       </c>
@@ -2327,7 +2671,9 @@
       <c r="R20" s="5">
         <v>549</v>
       </c>
-      <c r="S20" s="8"/>
+      <c r="S20" s="5">
+        <v>549</v>
+      </c>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
@@ -2338,10 +2684,11 @@
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
-    </row>
-    <row r="21" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD20" s="8"/>
+    </row>
+    <row r="21" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="5">
         <v>8</v>
@@ -2353,27 +2700,27 @@
         <v>303</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H21" s="5">
+        <v>147</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="5">
         <v>51513</v>
       </c>
-      <c r="I21" s="5">
+      <c r="J21" s="5">
         <v>2575</v>
       </c>
-      <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="5">
-        <v>824</v>
-      </c>
+      <c r="N21" s="5"/>
       <c r="O21" s="5">
         <v>824</v>
       </c>
@@ -2386,7 +2733,9 @@
       <c r="R21" s="5">
         <v>824</v>
       </c>
-      <c r="S21" s="8"/>
+      <c r="S21" s="5">
+        <v>824</v>
+      </c>
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
@@ -2397,10 +2746,11 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
-    </row>
-    <row r="22" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD21" s="8"/>
+    </row>
+    <row r="22" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="5">
         <v>2</v>
@@ -2412,25 +2762,25 @@
         <v>401</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="5"/>
+        <v>148</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="6"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="5">
-        <v>1897</v>
-      </c>
+      <c r="J22" s="5"/>
       <c r="K22" s="5">
         <v>1897</v>
       </c>
-      <c r="L22" s="5"/>
+      <c r="L22" s="5">
+        <v>1897</v>
+      </c>
       <c r="M22" s="5"/>
-      <c r="N22" s="5">
-        <v>607</v>
-      </c>
+      <c r="N22" s="5"/>
       <c r="O22" s="5">
         <v>607</v>
       </c>
@@ -2443,7 +2793,9 @@
       <c r="R22" s="5">
         <v>607</v>
       </c>
-      <c r="S22" s="8"/>
+      <c r="S22" s="5">
+        <v>607</v>
+      </c>
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
@@ -2454,10 +2806,11 @@
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
-    </row>
-    <row r="23" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD22" s="8"/>
+    </row>
+    <row r="23" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="5">
         <v>4</v>
@@ -2469,25 +2822,25 @@
         <v>401</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="5">
+        <v>148</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5">
         <v>56925</v>
       </c>
-      <c r="I23" s="5">
+      <c r="J23" s="5">
         <v>2846</v>
       </c>
-      <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="5">
-        <v>910</v>
-      </c>
+      <c r="N23" s="5"/>
       <c r="O23" s="5">
         <v>910</v>
       </c>
@@ -2500,7 +2853,9 @@
       <c r="R23" s="5">
         <v>910</v>
       </c>
-      <c r="S23" s="8"/>
+      <c r="S23" s="5">
+        <v>910</v>
+      </c>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
@@ -2511,10 +2866,11 @@
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
-    </row>
-    <row r="24" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD23" s="8"/>
+    </row>
+    <row r="24" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="5">
         <v>6</v>
@@ -2526,25 +2882,25 @@
         <v>401</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="5"/>
+        <v>148</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="5">
-        <v>2319</v>
-      </c>
+      <c r="J24" s="5"/>
       <c r="K24" s="5">
         <v>2319</v>
       </c>
-      <c r="L24" s="5"/>
+      <c r="L24" s="5">
+        <v>2319</v>
+      </c>
       <c r="M24" s="5"/>
-      <c r="N24" s="5">
-        <v>742</v>
-      </c>
+      <c r="N24" s="5"/>
       <c r="O24" s="5">
         <v>742</v>
       </c>
@@ -2557,7 +2913,9 @@
       <c r="R24" s="5">
         <v>742</v>
       </c>
-      <c r="S24" s="8"/>
+      <c r="S24" s="5">
+        <v>742</v>
+      </c>
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
@@ -2568,10 +2926,11 @@
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
-    </row>
-    <row r="25" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD24" s="8"/>
+    </row>
+    <row r="25" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="5">
         <v>8</v>
@@ -2583,27 +2942,27 @@
         <v>401</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" s="5">
+        <v>148</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="5">
         <v>69575</v>
       </c>
-      <c r="I25" s="5">
+      <c r="J25" s="5">
         <v>3478</v>
       </c>
-      <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="5">
-        <v>1113</v>
-      </c>
+      <c r="N25" s="5"/>
       <c r="O25" s="5">
         <v>1113</v>
       </c>
@@ -2616,7 +2975,9 @@
       <c r="R25" s="5">
         <v>1113</v>
       </c>
-      <c r="S25" s="8"/>
+      <c r="S25" s="5">
+        <v>1113</v>
+      </c>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
@@ -2627,10 +2988,11 @@
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
-    </row>
-    <row r="26" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD25" s="8"/>
+    </row>
+    <row r="26" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="5">
         <v>2</v>
@@ -2642,25 +3004,25 @@
         <v>402</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="6"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="5">
-        <v>2492</v>
-      </c>
+      <c r="J26" s="5"/>
       <c r="K26" s="5">
         <v>2492</v>
       </c>
-      <c r="L26" s="5"/>
+      <c r="L26" s="5">
+        <v>2492</v>
+      </c>
       <c r="M26" s="5"/>
-      <c r="N26" s="5">
-        <v>797</v>
-      </c>
+      <c r="N26" s="5"/>
       <c r="O26" s="5">
         <v>797</v>
       </c>
@@ -2673,7 +3035,9 @@
       <c r="R26" s="5">
         <v>797</v>
       </c>
-      <c r="S26" s="8"/>
+      <c r="S26" s="5">
+        <v>797</v>
+      </c>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
@@ -2684,10 +3048,11 @@
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
-    </row>
-    <row r="27" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD26" s="8"/>
+    </row>
+    <row r="27" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="5">
         <v>4</v>
@@ -2699,25 +3064,25 @@
         <v>402</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="5">
+        <v>149</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="5">
         <v>74784</v>
       </c>
-      <c r="I27" s="5">
+      <c r="J27" s="5">
         <v>3739</v>
       </c>
-      <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="5">
-        <v>1196</v>
-      </c>
+      <c r="N27" s="5"/>
       <c r="O27" s="5">
         <v>1196</v>
       </c>
@@ -2730,7 +3095,9 @@
       <c r="R27" s="5">
         <v>1196</v>
       </c>
-      <c r="S27" s="8"/>
+      <c r="S27" s="5">
+        <v>1196</v>
+      </c>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
@@ -2741,10 +3108,11 @@
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
-    </row>
-    <row r="28" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD27" s="8"/>
+    </row>
+    <row r="28" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="5">
         <v>6</v>
@@ -2756,25 +3124,25 @@
         <v>402</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H28" s="6"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="5">
-        <v>3046</v>
-      </c>
+      <c r="J28" s="5"/>
       <c r="K28" s="5">
         <v>3046</v>
       </c>
-      <c r="L28" s="5"/>
+      <c r="L28" s="5">
+        <v>3046</v>
+      </c>
       <c r="M28" s="5"/>
-      <c r="N28" s="5">
-        <v>974</v>
-      </c>
+      <c r="N28" s="5"/>
       <c r="O28" s="5">
         <v>974</v>
       </c>
@@ -2787,7 +3155,9 @@
       <c r="R28" s="5">
         <v>974</v>
       </c>
-      <c r="S28" s="8"/>
+      <c r="S28" s="5">
+        <v>974</v>
+      </c>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
@@ -2798,10 +3168,11 @@
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
-    </row>
-    <row r="29" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD28" s="8"/>
+    </row>
+    <row r="29" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" s="5">
         <v>8</v>
@@ -2813,27 +3184,27 @@
         <v>402</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H29" s="37">
+        <v>149</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="37">
         <v>91403</v>
       </c>
-      <c r="I29" s="37">
+      <c r="J29" s="37">
         <v>4570</v>
       </c>
-      <c r="J29" s="37"/>
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
       <c r="M29" s="37"/>
-      <c r="N29" s="37">
-        <v>1462</v>
-      </c>
+      <c r="N29" s="37"/>
       <c r="O29" s="37">
         <v>1462</v>
       </c>
@@ -2846,7 +3217,9 @@
       <c r="R29" s="37">
         <v>1462</v>
       </c>
-      <c r="S29" s="8"/>
+      <c r="S29" s="37">
+        <v>1462</v>
+      </c>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
@@ -2857,10 +3230,11 @@
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
-    </row>
-    <row r="30" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD29" s="8"/>
+    </row>
+    <row r="30" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="5">
         <v>2</v>
@@ -2872,38 +3246,40 @@
         <v>403</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="37"/>
+        <v>150</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="6"/>
       <c r="I30" s="37"/>
-      <c r="J30" s="37">
+      <c r="J30" s="37"/>
+      <c r="K30" s="37">
         <v>3761</v>
       </c>
-      <c r="K30" s="37">
+      <c r="L30" s="37">
         <v>3009</v>
       </c>
-      <c r="L30" s="37"/>
       <c r="M30" s="37"/>
-      <c r="N30" s="37">
+      <c r="N30" s="37"/>
+      <c r="O30" s="37">
         <v>812</v>
       </c>
-      <c r="O30" s="37">
+      <c r="P30" s="37">
         <v>975</v>
       </c>
-      <c r="P30" s="37">
+      <c r="Q30" s="37">
         <v>1083</v>
       </c>
-      <c r="Q30" s="37">
+      <c r="R30" s="37">
         <v>1191</v>
       </c>
-      <c r="R30" s="37">
+      <c r="S30" s="37">
         <v>1354</v>
       </c>
-      <c r="S30" s="8"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
@@ -2914,10 +3290,11 @@
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
-    </row>
-    <row r="31" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD30" s="8"/>
+    </row>
+    <row r="31" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="5">
         <v>4</v>
@@ -2929,42 +3306,44 @@
         <v>403</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="37">
+        <v>150</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="37">
         <v>91069</v>
       </c>
-      <c r="I31" s="37">
+      <c r="J31" s="37">
         <v>3642</v>
       </c>
-      <c r="J31" s="37"/>
       <c r="K31" s="37"/>
-      <c r="L31" s="17">
-        <v>100</v>
-      </c>
+      <c r="L31" s="37"/>
       <c r="M31" s="17">
         <v>100</v>
       </c>
-      <c r="N31" s="37">
+      <c r="N31" s="17">
+        <v>100</v>
+      </c>
+      <c r="O31" s="37">
         <v>983</v>
       </c>
-      <c r="O31" s="37">
+      <c r="P31" s="37">
         <v>1180</v>
       </c>
-      <c r="P31" s="37">
+      <c r="Q31" s="37">
         <v>1311</v>
       </c>
-      <c r="Q31" s="37">
+      <c r="R31" s="37">
         <v>1442</v>
       </c>
-      <c r="R31" s="37">
+      <c r="S31" s="37">
         <v>1639</v>
       </c>
-      <c r="S31" s="8"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -2975,10 +3354,11 @@
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
-    </row>
-    <row r="32" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD31" s="8"/>
+    </row>
+    <row r="32" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="5">
         <v>6</v>
@@ -2990,38 +3370,40 @@
         <v>403</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37">
+        <v>150</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37">
         <v>4276</v>
       </c>
-      <c r="J32" s="37">
+      <c r="K32" s="37">
         <v>5345</v>
       </c>
-      <c r="K32" s="37"/>
       <c r="L32" s="37"/>
       <c r="M32" s="37"/>
-      <c r="N32" s="37">
+      <c r="N32" s="37"/>
+      <c r="O32" s="37">
         <v>1154</v>
       </c>
-      <c r="O32" s="37">
+      <c r="P32" s="37">
         <v>1385</v>
       </c>
-      <c r="P32" s="37">
+      <c r="Q32" s="37">
         <v>1539</v>
       </c>
-      <c r="Q32" s="37">
+      <c r="R32" s="37">
         <v>1693</v>
       </c>
-      <c r="R32" s="37">
+      <c r="S32" s="37">
         <v>1924</v>
       </c>
-      <c r="S32" s="8"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
@@ -3032,10 +3414,11 @@
       <c r="AA32" s="8"/>
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
-    </row>
-    <row r="33" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD32" s="8"/>
+    </row>
+    <row r="33" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="5">
         <v>8</v>
@@ -3047,44 +3430,46 @@
         <v>403</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H33" s="5">
+        <v>150</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I33" s="5">
         <v>122746</v>
       </c>
-      <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="5">
+      <c r="K33" s="5"/>
+      <c r="L33" s="5">
         <v>4909</v>
-      </c>
-      <c r="L33" s="17">
-        <v>100</v>
       </c>
       <c r="M33" s="17">
         <v>100</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="17">
+        <v>100</v>
+      </c>
+      <c r="O33" s="5">
         <v>1325</v>
       </c>
-      <c r="O33" s="5">
+      <c r="P33" s="5">
         <v>1590</v>
       </c>
-      <c r="P33" s="5">
+      <c r="Q33" s="5">
         <v>1767</v>
       </c>
-      <c r="Q33" s="5">
+      <c r="R33" s="5">
         <v>1944</v>
       </c>
-      <c r="R33" s="5">
+      <c r="S33" s="5">
         <v>2209</v>
       </c>
-      <c r="S33" s="8"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
@@ -3095,10 +3480,11 @@
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
-    </row>
-    <row r="34" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD33" s="8"/>
+    </row>
+    <row r="34" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" s="5">
         <v>2</v>
@@ -3110,25 +3496,25 @@
         <v>404</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="5"/>
+        <v>151</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" s="6"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="5">
-        <v>5862</v>
-      </c>
+      <c r="J34" s="5"/>
       <c r="K34" s="5">
         <v>5862</v>
       </c>
-      <c r="L34" s="5"/>
+      <c r="L34" s="5">
+        <v>5862</v>
+      </c>
       <c r="M34" s="5"/>
-      <c r="N34" s="5">
-        <v>1875</v>
-      </c>
+      <c r="N34" s="5"/>
       <c r="O34" s="5">
         <v>1875</v>
       </c>
@@ -3141,7 +3527,9 @@
       <c r="R34" s="5">
         <v>1875</v>
       </c>
-      <c r="S34" s="8"/>
+      <c r="S34" s="5">
+        <v>1875</v>
+      </c>
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
@@ -3152,10 +3540,11 @@
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
-    </row>
-    <row r="35" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD34" s="8"/>
+    </row>
+    <row r="35" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" s="5">
         <v>4</v>
@@ -3167,28 +3556,28 @@
         <v>404</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="5">
+        <v>151</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="5">
         <v>108227</v>
       </c>
-      <c r="I35" s="5">
+      <c r="J35" s="5">
         <v>5411</v>
       </c>
-      <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="17">
-        <v>150</v>
-      </c>
+      <c r="L35" s="5"/>
       <c r="M35" s="17">
         <v>150</v>
       </c>
-      <c r="N35" s="5">
-        <v>1731</v>
+      <c r="N35" s="17">
+        <v>150</v>
       </c>
       <c r="O35" s="5">
         <v>1731</v>
@@ -3202,7 +3591,9 @@
       <c r="R35" s="5">
         <v>1731</v>
       </c>
-      <c r="S35" s="8"/>
+      <c r="S35" s="5">
+        <v>1731</v>
+      </c>
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
@@ -3213,10 +3604,11 @@
       <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
-    </row>
-    <row r="36" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD35" s="8"/>
+    </row>
+    <row r="36" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" s="5">
         <v>6</v>
@@ -3228,25 +3620,25 @@
         <v>404</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="5">
+        <v>151</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="5">
         <v>103718</v>
       </c>
-      <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="5">
+      <c r="K36" s="5"/>
+      <c r="L36" s="5">
         <v>5185</v>
       </c>
-      <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="5">
-        <v>1659</v>
-      </c>
+      <c r="N36" s="5"/>
       <c r="O36" s="5">
         <v>1659</v>
       </c>
@@ -3259,7 +3651,9 @@
       <c r="R36" s="5">
         <v>1659</v>
       </c>
-      <c r="S36" s="8"/>
+      <c r="S36" s="5">
+        <v>1659</v>
+      </c>
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
@@ -3270,10 +3664,11 @@
       <c r="AA36" s="8"/>
       <c r="AB36" s="8"/>
       <c r="AC36" s="8"/>
-    </row>
-    <row r="37" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD36" s="8"/>
+    </row>
+    <row r="37" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="5">
         <v>8</v>
@@ -3285,30 +3680,30 @@
         <v>404</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5">
-        <v>6087</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="5"/>
       <c r="J37" s="5">
         <v>6087</v>
       </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="17">
-        <v>150</v>
-      </c>
+      <c r="K37" s="5">
+        <v>6087</v>
+      </c>
+      <c r="L37" s="5"/>
       <c r="M37" s="17">
         <v>150</v>
       </c>
-      <c r="N37" s="5">
-        <v>1948</v>
+      <c r="N37" s="17">
+        <v>150</v>
       </c>
       <c r="O37" s="5">
         <v>1948</v>
@@ -3322,7 +3717,9 @@
       <c r="R37" s="5">
         <v>1948</v>
       </c>
-      <c r="S37" s="8"/>
+      <c r="S37" s="5">
+        <v>1948</v>
+      </c>
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
@@ -3333,10 +3730,11 @@
       <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
-    </row>
-    <row r="38" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD37" s="8"/>
+    </row>
+    <row r="38" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" s="5">
         <v>2</v>
@@ -3348,38 +3746,40 @@
         <v>501</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="5"/>
+        <v>152</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="6"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="5">
+      <c r="J38" s="5"/>
+      <c r="K38" s="5">
         <v>5941</v>
       </c>
-      <c r="K38" s="5">
+      <c r="L38" s="5">
         <v>4753</v>
       </c>
-      <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="5">
+      <c r="N38" s="5"/>
+      <c r="O38" s="5">
         <v>1283</v>
       </c>
-      <c r="O38" s="5">
+      <c r="P38" s="5">
         <v>1539</v>
       </c>
-      <c r="P38" s="5">
+      <c r="Q38" s="5">
         <v>1711</v>
       </c>
-      <c r="Q38" s="5">
+      <c r="R38" s="5">
         <v>1882</v>
       </c>
-      <c r="R38" s="5">
+      <c r="S38" s="5">
         <v>2138</v>
       </c>
-      <c r="S38" s="8"/>
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
@@ -3390,10 +3790,11 @@
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
-    </row>
-    <row r="39" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD38" s="8"/>
+    </row>
+    <row r="39" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="5">
         <v>4</v>
@@ -3405,42 +3806,44 @@
         <v>501</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="5">
+        <v>152</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="5">
         <v>143842</v>
       </c>
-      <c r="I39" s="5">
+      <c r="J39" s="5">
         <v>5753</v>
       </c>
-      <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="17">
-        <v>200</v>
-      </c>
+      <c r="L39" s="5"/>
       <c r="M39" s="17">
         <v>200</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="17">
+        <v>200</v>
+      </c>
+      <c r="O39" s="5">
         <v>1553</v>
       </c>
-      <c r="O39" s="5">
+      <c r="P39" s="5">
         <v>1864</v>
       </c>
-      <c r="P39" s="5">
+      <c r="Q39" s="5">
         <v>2071</v>
       </c>
-      <c r="Q39" s="5">
+      <c r="R39" s="5">
         <v>2278</v>
       </c>
-      <c r="R39" s="5">
+      <c r="S39" s="5">
         <v>2589</v>
       </c>
-      <c r="S39" s="8"/>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
@@ -3451,10 +3854,11 @@
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
-    </row>
-    <row r="40" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD39" s="8"/>
+    </row>
+    <row r="40" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="5">
         <v>6</v>
@@ -3466,38 +3870,40 @@
         <v>501</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5">
+        <v>152</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5">
         <v>6754</v>
       </c>
-      <c r="J40" s="5">
+      <c r="K40" s="5">
         <v>8442</v>
       </c>
-      <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="5">
+      <c r="N40" s="5"/>
+      <c r="O40" s="5">
         <v>1823</v>
       </c>
-      <c r="O40" s="5">
+      <c r="P40" s="5">
         <v>2188</v>
       </c>
-      <c r="P40" s="5">
+      <c r="Q40" s="5">
         <v>2431</v>
       </c>
-      <c r="Q40" s="5">
+      <c r="R40" s="5">
         <v>2674</v>
       </c>
-      <c r="R40" s="5">
+      <c r="S40" s="5">
         <v>3039</v>
       </c>
-      <c r="S40" s="8"/>
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
@@ -3508,10 +3914,11 @@
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
-    </row>
-    <row r="41" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD40" s="8"/>
+    </row>
+    <row r="41" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" s="5">
         <v>8</v>
@@ -3523,44 +3930,46 @@
         <v>501</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F41" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H41" s="5">
+        <v>152</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I41" s="5">
         <v>193874</v>
       </c>
-      <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="5">
+      <c r="K41" s="5"/>
+      <c r="L41" s="5">
         <v>7754</v>
-      </c>
-      <c r="L41" s="17">
-        <v>200</v>
       </c>
       <c r="M41" s="17">
         <v>200</v>
       </c>
-      <c r="N41" s="5">
+      <c r="N41" s="17">
+        <v>200</v>
+      </c>
+      <c r="O41" s="5">
         <v>2093</v>
       </c>
-      <c r="O41" s="5">
+      <c r="P41" s="5">
         <v>2512</v>
       </c>
-      <c r="P41" s="5">
+      <c r="Q41" s="5">
         <v>2791</v>
       </c>
-      <c r="Q41" s="5">
+      <c r="R41" s="5">
         <v>3070</v>
       </c>
-      <c r="R41" s="5">
+      <c r="S41" s="5">
         <v>3489</v>
       </c>
-      <c r="S41" s="8"/>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
@@ -3571,10 +3980,11 @@
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
-    </row>
-    <row r="42" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD41" s="8"/>
+    </row>
+    <row r="42" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" s="5">
         <v>2</v>
@@ -3589,22 +3999,22 @@
         <v>26</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="5"/>
+        <v>153</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="6"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="5">
-        <v>7985</v>
-      </c>
+      <c r="J42" s="5"/>
       <c r="K42" s="5">
         <v>7985</v>
       </c>
-      <c r="L42" s="5"/>
+      <c r="L42" s="5">
+        <v>7985</v>
+      </c>
       <c r="M42" s="5"/>
-      <c r="N42" s="5">
-        <v>2555</v>
-      </c>
+      <c r="N42" s="5"/>
       <c r="O42" s="5">
         <v>2555</v>
       </c>
@@ -3617,7 +4027,9 @@
       <c r="R42" s="5">
         <v>2555</v>
       </c>
-      <c r="S42" s="8"/>
+      <c r="S42" s="5">
+        <v>2555</v>
+      </c>
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
@@ -3628,8 +4040,9 @@
       <c r="AA42" s="8"/>
       <c r="AB42" s="8"/>
       <c r="AC42" s="8"/>
-    </row>
-    <row r="43" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD42" s="8"/>
+    </row>
+    <row r="43" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>24</v>
       </c>
@@ -3646,25 +4059,25 @@
         <v>26</v>
       </c>
       <c r="F43" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="5">
+        <v>153</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="5">
         <v>166647</v>
       </c>
-      <c r="I43" s="5">
+      <c r="J43" s="5">
         <v>8332</v>
       </c>
-      <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="17">
-        <v>250</v>
-      </c>
+      <c r="L43" s="5"/>
       <c r="M43" s="17">
         <v>250</v>
       </c>
-      <c r="N43" s="5">
-        <v>2666</v>
+      <c r="N43" s="17">
+        <v>250</v>
       </c>
       <c r="O43" s="5">
         <v>2666</v>
@@ -3678,7 +4091,9 @@
       <c r="R43" s="5">
         <v>2666</v>
       </c>
-      <c r="S43" s="8"/>
+      <c r="S43" s="5">
+        <v>2666</v>
+      </c>
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
@@ -3689,8 +4104,9 @@
       <c r="AA43" s="8"/>
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
-    </row>
-    <row r="44" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD43" s="8"/>
+    </row>
+    <row r="44" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>25</v>
       </c>
@@ -3707,22 +4123,22 @@
         <v>26</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="5">
+        <v>153</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="5">
         <v>180534</v>
       </c>
-      <c r="I44" s="5"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="5">
+      <c r="K44" s="5"/>
+      <c r="L44" s="5">
         <v>9026</v>
       </c>
-      <c r="L44" s="5"/>
       <c r="M44" s="5"/>
-      <c r="N44" s="5">
-        <v>2888</v>
-      </c>
+      <c r="N44" s="5"/>
       <c r="O44" s="5">
         <v>2888</v>
       </c>
@@ -3735,7 +4151,9 @@
       <c r="R44" s="5">
         <v>2888</v>
       </c>
-      <c r="S44" s="8"/>
+      <c r="S44" s="5">
+        <v>2888</v>
+      </c>
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
@@ -3746,8 +4164,9 @@
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
-    </row>
-    <row r="45" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD44" s="8"/>
+    </row>
+    <row r="45" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>26</v>
       </c>
@@ -3764,27 +4183,27 @@
         <v>26</v>
       </c>
       <c r="F45" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5">
-        <v>9373</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I45" s="5"/>
       <c r="J45" s="5">
         <v>9373</v>
       </c>
-      <c r="K45" s="5"/>
-      <c r="L45" s="17">
-        <v>250</v>
-      </c>
+      <c r="K45" s="5">
+        <v>9373</v>
+      </c>
+      <c r="L45" s="5"/>
       <c r="M45" s="17">
         <v>250</v>
       </c>
-      <c r="N45" s="5">
-        <v>2999</v>
+      <c r="N45" s="17">
+        <v>250</v>
       </c>
       <c r="O45" s="5">
         <v>2999</v>
@@ -3798,7 +4217,9 @@
       <c r="R45" s="5">
         <v>2999</v>
       </c>
-      <c r="S45" s="8"/>
+      <c r="S45" s="5">
+        <v>2999</v>
+      </c>
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
@@ -3809,10 +4230,11 @@
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
-    </row>
-    <row r="46" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD45" s="8"/>
+    </row>
+    <row r="46" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="5">
         <v>2</v>
@@ -3827,35 +4249,37 @@
         <v>29</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="5"/>
+        <v>154</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="6"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="5">
+      <c r="J46" s="5"/>
+      <c r="K46" s="5">
         <v>8949</v>
       </c>
-      <c r="K46" s="5">
+      <c r="L46" s="5">
         <v>7159</v>
       </c>
-      <c r="L46" s="5"/>
       <c r="M46" s="5"/>
-      <c r="N46" s="5">
+      <c r="N46" s="5"/>
+      <c r="O46" s="5">
         <v>1933</v>
       </c>
-      <c r="O46" s="5">
+      <c r="P46" s="5">
         <v>2319</v>
       </c>
-      <c r="P46" s="5">
+      <c r="Q46" s="5">
         <v>2577</v>
       </c>
-      <c r="Q46" s="5">
+      <c r="R46" s="5">
         <v>2835</v>
       </c>
-      <c r="R46" s="5">
+      <c r="S46" s="5">
         <v>3221</v>
       </c>
-      <c r="S46" s="8"/>
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
@@ -3866,8 +4290,9 @@
       <c r="AA46" s="8"/>
       <c r="AB46" s="8"/>
       <c r="AC46" s="8"/>
-    </row>
-    <row r="47" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD46" s="8"/>
+    </row>
+    <row r="47" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>27</v>
       </c>
@@ -3884,39 +4309,41 @@
         <v>29</v>
       </c>
       <c r="F47" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="5">
+        <v>154</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="5">
         <v>216676</v>
       </c>
-      <c r="I47" s="5">
+      <c r="J47" s="5">
         <v>8667</v>
       </c>
-      <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="17">
-        <v>300</v>
-      </c>
+      <c r="L47" s="5"/>
       <c r="M47" s="17">
         <v>300</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47" s="17">
+        <v>300</v>
+      </c>
+      <c r="O47" s="5">
         <v>2340</v>
       </c>
-      <c r="O47" s="5">
+      <c r="P47" s="5">
         <v>2808</v>
       </c>
-      <c r="P47" s="5">
+      <c r="Q47" s="5">
         <v>3120</v>
       </c>
-      <c r="Q47" s="5">
+      <c r="R47" s="5">
         <v>3432</v>
       </c>
-      <c r="R47" s="5">
+      <c r="S47" s="5">
         <v>3900</v>
       </c>
-      <c r="S47" s="8"/>
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
@@ -3927,8 +4354,9 @@
       <c r="AA47" s="8"/>
       <c r="AB47" s="8"/>
       <c r="AC47" s="8"/>
-    </row>
-    <row r="48" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD47" s="8"/>
+    </row>
+    <row r="48" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>28</v>
       </c>
@@ -3945,35 +4373,37 @@
         <v>29</v>
       </c>
       <c r="F48" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5">
+        <v>154</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5">
         <v>10174</v>
       </c>
-      <c r="J48" s="5">
+      <c r="K48" s="5">
         <v>12717</v>
       </c>
-      <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
-      <c r="N48" s="5">
+      <c r="N48" s="5"/>
+      <c r="O48" s="5">
         <v>2747</v>
       </c>
-      <c r="O48" s="5">
+      <c r="P48" s="5">
         <v>3296</v>
       </c>
-      <c r="P48" s="5">
+      <c r="Q48" s="5">
         <v>3662</v>
       </c>
-      <c r="Q48" s="5">
+      <c r="R48" s="5">
         <v>4029</v>
       </c>
-      <c r="R48" s="5">
+      <c r="S48" s="5">
         <v>4578</v>
       </c>
-      <c r="S48" s="8"/>
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
@@ -3984,8 +4414,9 @@
       <c r="AA48" s="8"/>
       <c r="AB48" s="8"/>
       <c r="AC48" s="8"/>
-    </row>
-    <row r="49" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="AD48" s="8"/>
+    </row>
+    <row r="49" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A49" s="37" t="s">
         <v>29</v>
       </c>
@@ -4002,44 +4433,47 @@
         <v>29</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="H49" s="37">
+        <v>154</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="I49" s="37">
         <v>292042</v>
       </c>
-      <c r="I49" s="37"/>
       <c r="J49" s="37"/>
-      <c r="K49" s="37">
+      <c r="K49" s="37"/>
+      <c r="L49" s="37">
         <v>11681</v>
-      </c>
-      <c r="L49" s="17">
-        <v>300</v>
       </c>
       <c r="M49" s="17">
         <v>300</v>
       </c>
-      <c r="N49" s="37">
+      <c r="N49" s="17">
+        <v>300</v>
+      </c>
+      <c r="O49" s="37">
         <v>3154</v>
       </c>
-      <c r="O49" s="37">
+      <c r="P49" s="37">
         <v>3784</v>
       </c>
-      <c r="P49" s="37">
+      <c r="Q49" s="37">
         <v>4205</v>
       </c>
-      <c r="Q49" s="37">
+      <c r="R49" s="37">
         <v>4625</v>
       </c>
-      <c r="R49" s="37">
+      <c r="S49" s="37">
         <v>5256</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A50" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" s="37">
         <v>2</v>
@@ -4051,41 +4485,44 @@
         <v>504</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G50" s="35"/>
-      <c r="H50" s="37"/>
+        <v>155</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50" s="35"/>
       <c r="I50" s="37"/>
-      <c r="J50" s="37">
+      <c r="J50" s="37"/>
+      <c r="K50" s="37">
         <v>8771</v>
       </c>
-      <c r="K50" s="37">
+      <c r="L50" s="37">
         <v>10720</v>
       </c>
-      <c r="L50" s="37"/>
       <c r="M50" s="37"/>
-      <c r="N50" s="37">
+      <c r="N50" s="37"/>
+      <c r="O50" s="37">
         <v>2339</v>
       </c>
-      <c r="O50" s="37">
+      <c r="P50" s="37">
         <v>2806</v>
       </c>
-      <c r="P50" s="37">
+      <c r="Q50" s="37">
         <v>3118</v>
       </c>
-      <c r="Q50" s="37">
+      <c r="R50" s="37">
         <v>3430</v>
       </c>
-      <c r="R50" s="37">
+      <c r="S50" s="37">
         <v>3898</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A51" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B51" s="37">
         <v>4</v>
@@ -4097,45 +4534,48 @@
         <v>504</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G51" s="35"/>
-      <c r="H51" s="37">
+        <v>155</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H51" s="35"/>
+      <c r="I51" s="37">
         <v>212366</v>
       </c>
-      <c r="I51" s="37">
+      <c r="J51" s="37">
         <v>12977</v>
       </c>
-      <c r="J51" s="37"/>
       <c r="K51" s="37"/>
-      <c r="L51" s="17">
-        <v>350.00000000000006</v>
-      </c>
+      <c r="L51" s="37"/>
       <c r="M51" s="17">
         <v>350.00000000000006</v>
       </c>
-      <c r="N51" s="37">
+      <c r="N51" s="17">
+        <v>350.00000000000006</v>
+      </c>
+      <c r="O51" s="37">
         <v>2831</v>
       </c>
-      <c r="O51" s="37">
+      <c r="P51" s="37">
         <v>3397</v>
       </c>
-      <c r="P51" s="37">
+      <c r="Q51" s="37">
         <v>3775</v>
       </c>
-      <c r="Q51" s="37">
+      <c r="R51" s="37">
         <v>4152</v>
       </c>
-      <c r="R51" s="37">
+      <c r="S51" s="37">
         <v>4719</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A52" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" s="37">
         <v>6</v>
@@ -4147,41 +4587,44 @@
         <v>504</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F52" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G52" s="35"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37">
+        <v>155</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H52" s="35"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37">
         <v>15234</v>
       </c>
-      <c r="J52" s="37">
+      <c r="K52" s="37">
         <v>12464</v>
       </c>
-      <c r="K52" s="37"/>
       <c r="L52" s="37"/>
       <c r="M52" s="37"/>
-      <c r="N52" s="37">
+      <c r="N52" s="37"/>
+      <c r="O52" s="37">
         <v>3323</v>
       </c>
-      <c r="O52" s="37">
+      <c r="P52" s="37">
         <v>3988</v>
       </c>
-      <c r="P52" s="37">
+      <c r="Q52" s="37">
         <v>4431</v>
       </c>
-      <c r="Q52" s="37">
+      <c r="R52" s="37">
         <v>4875</v>
       </c>
-      <c r="R52" s="37">
+      <c r="S52" s="37">
         <v>5539</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A53" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B53" s="37">
         <v>8</v>
@@ -4193,47 +4636,50 @@
         <v>504</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G53" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="H53" s="37">
+        <v>155</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="I53" s="37">
         <v>286232</v>
       </c>
-      <c r="I53" s="37"/>
       <c r="J53" s="37"/>
-      <c r="K53" s="37">
+      <c r="K53" s="37"/>
+      <c r="L53" s="37">
         <v>17491</v>
-      </c>
-      <c r="L53" s="17">
-        <v>350.00000000000006</v>
       </c>
       <c r="M53" s="17">
         <v>350.00000000000006</v>
       </c>
-      <c r="N53" s="37">
+      <c r="N53" s="17">
+        <v>350.00000000000006</v>
+      </c>
+      <c r="O53" s="37">
         <v>3816</v>
       </c>
-      <c r="O53" s="37">
+      <c r="P53" s="37">
         <v>4579</v>
       </c>
-      <c r="P53" s="37">
+      <c r="Q53" s="37">
         <v>5088</v>
       </c>
-      <c r="Q53" s="37">
+      <c r="R53" s="37">
         <v>5597</v>
       </c>
-      <c r="R53" s="37">
+      <c r="S53" s="37">
         <v>6360</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A54" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B54" s="37">
         <v>2</v>
@@ -4245,25 +4691,25 @@
         <v>601</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F54" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G54" s="35"/>
-      <c r="H54" s="37"/>
+        <v>156</v>
+      </c>
+      <c r="G54" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="H54" s="35"/>
       <c r="I54" s="37"/>
-      <c r="J54" s="37">
-        <v>14159</v>
-      </c>
+      <c r="J54" s="37"/>
       <c r="K54" s="37">
         <v>14159</v>
       </c>
-      <c r="L54" s="37"/>
+      <c r="L54" s="37">
+        <v>14159</v>
+      </c>
       <c r="M54" s="37"/>
-      <c r="N54" s="37">
-        <v>4530</v>
-      </c>
+      <c r="N54" s="37"/>
       <c r="O54" s="37">
         <v>4530</v>
       </c>
@@ -4276,10 +4722,13 @@
       <c r="R54" s="37">
         <v>4530</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="S54" s="37">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A55" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B55" s="37">
         <v>4</v>
@@ -4291,28 +4740,28 @@
         <v>601</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G55" s="35"/>
-      <c r="H55" s="37">
+        <v>156</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="H55" s="35"/>
+      <c r="I55" s="37">
         <v>295498</v>
       </c>
-      <c r="I55" s="37">
+      <c r="J55" s="37">
         <v>14774</v>
       </c>
-      <c r="J55" s="37"/>
       <c r="K55" s="37"/>
-      <c r="L55" s="17">
-        <v>400</v>
-      </c>
+      <c r="L55" s="37"/>
       <c r="M55" s="17">
         <v>400</v>
       </c>
-      <c r="N55" s="37">
-        <v>4727</v>
+      <c r="N55" s="17">
+        <v>400</v>
       </c>
       <c r="O55" s="37">
         <v>4727</v>
@@ -4326,10 +4775,13 @@
       <c r="R55" s="37">
         <v>4727</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="S55" s="37">
+        <v>4727</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A56" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" s="37">
         <v>6</v>
@@ -4341,25 +4793,25 @@
         <v>601</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G56" s="35"/>
-      <c r="H56" s="37">
+        <v>156</v>
+      </c>
+      <c r="G56" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="H56" s="35"/>
+      <c r="I56" s="37">
         <v>320122</v>
       </c>
-      <c r="I56" s="37"/>
       <c r="J56" s="37"/>
-      <c r="K56" s="37">
+      <c r="K56" s="37"/>
+      <c r="L56" s="37">
         <v>16006</v>
       </c>
-      <c r="L56" s="37"/>
       <c r="M56" s="37"/>
-      <c r="N56" s="37">
-        <v>5121</v>
-      </c>
+      <c r="N56" s="37"/>
       <c r="O56" s="37">
         <v>5121</v>
       </c>
@@ -4372,10 +4824,13 @@
       <c r="R56" s="37">
         <v>5121</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="S56" s="37">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A57" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B57" s="37">
         <v>8</v>
@@ -4387,30 +4842,30 @@
         <v>601</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G57" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37">
-        <v>16621</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G57" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="I57" s="37"/>
       <c r="J57" s="37">
         <v>16621</v>
       </c>
-      <c r="K57" s="37"/>
-      <c r="L57" s="17">
-        <v>400</v>
-      </c>
+      <c r="K57" s="37">
+        <v>16621</v>
+      </c>
+      <c r="L57" s="37"/>
       <c r="M57" s="17">
         <v>400</v>
       </c>
-      <c r="N57" s="37">
-        <v>5318</v>
+      <c r="N57" s="17">
+        <v>400</v>
       </c>
       <c r="O57" s="37">
         <v>5318</v>
@@ -4424,10 +4879,13 @@
       <c r="R57" s="37">
         <v>5318</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="S57" s="37">
+        <v>5318</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A58" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B58" s="37">
         <v>2</v>
@@ -4439,41 +4897,44 @@
         <v>602</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="37"/>
+        <v>157</v>
+      </c>
+      <c r="G58" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" s="35"/>
       <c r="I58" s="37"/>
-      <c r="J58" s="37">
+      <c r="J58" s="37"/>
+      <c r="K58" s="37">
         <v>15481</v>
       </c>
-      <c r="K58" s="37">
+      <c r="L58" s="37">
         <v>12385</v>
       </c>
-      <c r="L58" s="37"/>
       <c r="M58" s="37"/>
-      <c r="N58" s="37">
+      <c r="N58" s="37"/>
+      <c r="O58" s="37">
         <v>3344</v>
       </c>
-      <c r="O58" s="37">
+      <c r="P58" s="37">
         <v>4012</v>
       </c>
-      <c r="P58" s="37">
+      <c r="Q58" s="37">
         <v>4458</v>
       </c>
-      <c r="Q58" s="37">
+      <c r="R58" s="37">
         <v>4904</v>
       </c>
-      <c r="R58" s="37">
+      <c r="S58" s="37">
         <v>5573</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A59" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B59" s="37">
         <v>4</v>
@@ -4485,45 +4946,48 @@
         <v>602</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G59" s="35"/>
-      <c r="H59" s="37">
+        <v>157</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" s="35"/>
+      <c r="I59" s="37">
         <v>374816</v>
       </c>
-      <c r="I59" s="37">
+      <c r="J59" s="37">
         <v>14992</v>
       </c>
-      <c r="J59" s="37"/>
       <c r="K59" s="37"/>
-      <c r="L59" s="17">
-        <v>450</v>
-      </c>
+      <c r="L59" s="37"/>
       <c r="M59" s="17">
         <v>450</v>
       </c>
-      <c r="N59" s="37">
+      <c r="N59" s="17">
+        <v>450</v>
+      </c>
+      <c r="O59" s="37">
         <v>4048</v>
       </c>
-      <c r="O59" s="37">
+      <c r="P59" s="37">
         <v>4857</v>
       </c>
-      <c r="P59" s="37">
+      <c r="Q59" s="37">
         <v>5397</v>
       </c>
-      <c r="Q59" s="37">
+      <c r="R59" s="37">
         <v>5937</v>
       </c>
-      <c r="R59" s="37">
+      <c r="S59" s="37">
         <v>6746</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A60" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B60" s="37">
         <v>6</v>
@@ -4535,41 +4999,44 @@
         <v>602</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G60" s="35"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37">
+        <v>157</v>
+      </c>
+      <c r="G60" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H60" s="35"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37">
         <v>17600</v>
       </c>
-      <c r="J60" s="37">
+      <c r="K60" s="37">
         <v>22000</v>
       </c>
-      <c r="K60" s="37"/>
       <c r="L60" s="37"/>
       <c r="M60" s="37"/>
-      <c r="N60" s="37">
+      <c r="N60" s="37"/>
+      <c r="O60" s="37">
         <v>4752</v>
       </c>
-      <c r="O60" s="37">
+      <c r="P60" s="37">
         <v>5702</v>
       </c>
-      <c r="P60" s="37">
+      <c r="Q60" s="37">
         <v>6336</v>
       </c>
-      <c r="Q60" s="37">
+      <c r="R60" s="37">
         <v>6969</v>
       </c>
-      <c r="R60" s="37">
+      <c r="S60" s="37">
         <v>7920</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A61" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B61" s="37">
         <v>8</v>
@@ -4581,47 +5048,50 @@
         <v>602</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F61" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G61" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="H61" s="37">
+        <v>157</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H61" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="I61" s="37">
         <v>505187</v>
       </c>
-      <c r="I61" s="37"/>
       <c r="J61" s="37"/>
-      <c r="K61" s="37">
+      <c r="K61" s="37"/>
+      <c r="L61" s="37">
         <v>20207</v>
-      </c>
-      <c r="L61" s="17">
-        <v>450</v>
       </c>
       <c r="M61" s="17">
         <v>450</v>
       </c>
-      <c r="N61" s="37">
+      <c r="N61" s="17">
+        <v>450</v>
+      </c>
+      <c r="O61" s="37">
         <v>5456</v>
       </c>
-      <c r="O61" s="37">
+      <c r="P61" s="37">
         <v>6547</v>
       </c>
-      <c r="P61" s="37">
+      <c r="Q61" s="37">
         <v>7274</v>
       </c>
-      <c r="Q61" s="37">
+      <c r="R61" s="37">
         <v>8002</v>
       </c>
-      <c r="R61" s="37">
+      <c r="S61" s="37">
         <v>9093</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A62" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B62" s="37">
         <v>2</v>
@@ -4633,41 +5103,44 @@
         <v>603</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G62" s="35"/>
-      <c r="H62" s="37"/>
+        <v>158</v>
+      </c>
+      <c r="G62" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H62" s="35"/>
       <c r="I62" s="37"/>
-      <c r="J62" s="37">
+      <c r="J62" s="37"/>
+      <c r="K62" s="37">
         <v>14836</v>
       </c>
-      <c r="K62" s="37">
+      <c r="L62" s="37">
         <v>18132</v>
       </c>
-      <c r="L62" s="37"/>
       <c r="M62" s="37"/>
-      <c r="N62" s="37">
+      <c r="N62" s="37"/>
+      <c r="O62" s="37">
         <v>3956</v>
       </c>
-      <c r="O62" s="37">
+      <c r="P62" s="37">
         <v>4747</v>
       </c>
-      <c r="P62" s="37">
+      <c r="Q62" s="37">
         <v>5275</v>
       </c>
-      <c r="Q62" s="37">
+      <c r="R62" s="37">
         <v>5802</v>
       </c>
-      <c r="R62" s="37">
+      <c r="S62" s="37">
         <v>6593</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A63" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B63" s="37">
         <v>4</v>
@@ -4679,45 +5152,48 @@
         <v>603</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G63" s="35"/>
-      <c r="H63" s="37">
+        <v>158</v>
+      </c>
+      <c r="G63" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H63" s="35"/>
+      <c r="I63" s="37">
         <v>359188</v>
       </c>
-      <c r="I63" s="37">
+      <c r="J63" s="37">
         <v>21950</v>
       </c>
-      <c r="J63" s="37"/>
       <c r="K63" s="37"/>
-      <c r="L63" s="17">
-        <v>500</v>
-      </c>
+      <c r="L63" s="37"/>
       <c r="M63" s="17">
         <v>500</v>
       </c>
-      <c r="N63" s="37">
+      <c r="N63" s="17">
+        <v>500</v>
+      </c>
+      <c r="O63" s="37">
         <v>4789</v>
       </c>
-      <c r="O63" s="37">
+      <c r="P63" s="37">
         <v>5747</v>
       </c>
-      <c r="P63" s="37">
+      <c r="Q63" s="37">
         <v>6385</v>
       </c>
-      <c r="Q63" s="37">
+      <c r="R63" s="37">
         <v>7024</v>
       </c>
-      <c r="R63" s="37">
+      <c r="S63" s="37">
         <v>7981</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A64" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B64" s="37">
         <v>6</v>
@@ -4729,41 +5205,44 @@
         <v>603</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F64" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G64" s="35"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37">
+        <v>158</v>
+      </c>
+      <c r="G64" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H64" s="35"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37">
         <v>25767</v>
       </c>
-      <c r="J64" s="37">
+      <c r="K64" s="37">
         <v>21082</v>
       </c>
-      <c r="K64" s="37"/>
       <c r="L64" s="37"/>
       <c r="M64" s="37"/>
-      <c r="N64" s="37">
+      <c r="N64" s="37"/>
+      <c r="O64" s="37">
         <v>5622</v>
       </c>
-      <c r="O64" s="37">
+      <c r="P64" s="37">
         <v>6746</v>
       </c>
-      <c r="P64" s="37">
+      <c r="Q64" s="37">
         <v>7496</v>
       </c>
-      <c r="Q64" s="37">
+      <c r="R64" s="37">
         <v>8245</v>
       </c>
-      <c r="R64" s="37">
+      <c r="S64" s="37">
         <v>9370</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B65" s="37">
         <v>8</v>
@@ -4775,47 +5254,50 @@
         <v>603</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F65" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G65" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="H65" s="37">
+        <v>158</v>
+      </c>
+      <c r="G65" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H65" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I65" s="37">
         <v>484123</v>
       </c>
-      <c r="I65" s="37"/>
       <c r="J65" s="37"/>
-      <c r="K65" s="37">
+      <c r="K65" s="37"/>
+      <c r="L65" s="37">
         <v>29585</v>
-      </c>
-      <c r="L65" s="17">
-        <v>500</v>
       </c>
       <c r="M65" s="17">
         <v>500</v>
       </c>
-      <c r="N65" s="37">
+      <c r="N65" s="17">
+        <v>500</v>
+      </c>
+      <c r="O65" s="37">
         <v>6454</v>
       </c>
-      <c r="O65" s="37">
+      <c r="P65" s="37">
         <v>7745</v>
       </c>
-      <c r="P65" s="37">
+      <c r="Q65" s="37">
         <v>8606</v>
       </c>
-      <c r="Q65" s="37">
+      <c r="R65" s="37">
         <v>9467</v>
       </c>
-      <c r="R65" s="37">
+      <c r="S65" s="37">
         <v>10758</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A66" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B66" s="37">
         <v>2</v>
@@ -4827,25 +5309,25 @@
         <v>604</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G66" s="35"/>
-      <c r="H66" s="37"/>
+        <v>159</v>
+      </c>
+      <c r="G66" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="H66" s="35"/>
       <c r="I66" s="37"/>
-      <c r="J66" s="37">
-        <v>23460</v>
-      </c>
+      <c r="J66" s="37"/>
       <c r="K66" s="37">
         <v>23460</v>
       </c>
-      <c r="L66" s="37"/>
+      <c r="L66" s="37">
+        <v>23460</v>
+      </c>
       <c r="M66" s="37"/>
-      <c r="N66" s="37">
-        <v>7507</v>
-      </c>
+      <c r="N66" s="37"/>
       <c r="O66" s="37">
         <v>7507</v>
       </c>
@@ -4858,10 +5340,13 @@
       <c r="R66" s="37">
         <v>7507</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="S66" s="37">
+        <v>7507</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A67" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B67" s="37">
         <v>4</v>
@@ -4873,28 +5358,28 @@
         <v>604</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G67" s="35"/>
-      <c r="H67" s="37">
+        <v>159</v>
+      </c>
+      <c r="G67" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="H67" s="35"/>
+      <c r="I67" s="37">
         <v>489600</v>
       </c>
-      <c r="I67" s="37">
+      <c r="J67" s="37">
         <v>24480</v>
       </c>
-      <c r="J67" s="37"/>
       <c r="K67" s="37"/>
-      <c r="L67" s="17">
-        <v>550</v>
-      </c>
+      <c r="L67" s="37"/>
       <c r="M67" s="17">
         <v>550</v>
       </c>
-      <c r="N67" s="37">
-        <v>7833</v>
+      <c r="N67" s="17">
+        <v>550</v>
       </c>
       <c r="O67" s="37">
         <v>7833</v>
@@ -4908,10 +5393,13 @@
       <c r="R67" s="37">
         <v>7833</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="S67" s="37">
+        <v>7833</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A68" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B68" s="37">
         <v>6</v>
@@ -4923,25 +5411,25 @@
         <v>604</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G68" s="35"/>
-      <c r="H68" s="37">
+        <v>159</v>
+      </c>
+      <c r="G68" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="H68" s="35"/>
+      <c r="I68" s="37">
         <v>530400</v>
       </c>
-      <c r="I68" s="37"/>
       <c r="J68" s="37"/>
-      <c r="K68" s="37">
+      <c r="K68" s="37"/>
+      <c r="L68" s="37">
         <v>26520</v>
       </c>
-      <c r="L68" s="37"/>
       <c r="M68" s="37"/>
-      <c r="N68" s="37">
-        <v>8486</v>
-      </c>
+      <c r="N68" s="37"/>
       <c r="O68" s="37">
         <v>8486</v>
       </c>
@@ -4954,10 +5442,13 @@
       <c r="R68" s="37">
         <v>8486</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="S68" s="37">
+        <v>8486</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B69" s="17">
         <v>8</v>
@@ -4969,30 +5460,30 @@
         <v>604</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F69" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G69" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14">
-        <v>27540</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G69" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I69" s="14"/>
       <c r="J69" s="14">
         <v>27540</v>
       </c>
-      <c r="K69" s="14"/>
-      <c r="L69" s="17">
-        <v>550</v>
-      </c>
+      <c r="K69" s="14">
+        <v>27540</v>
+      </c>
+      <c r="L69" s="14"/>
       <c r="M69" s="17">
         <v>550</v>
       </c>
-      <c r="N69" s="14">
-        <v>8812</v>
+      <c r="N69" s="17">
+        <v>550</v>
       </c>
       <c r="O69" s="14">
         <v>8812</v>
@@ -5004,6 +5495,9 @@
         <v>8812</v>
       </c>
       <c r="R69" s="14">
+        <v>8812</v>
+      </c>
+      <c r="S69" s="14">
         <v>8812</v>
       </c>
     </row>
@@ -5328,7 +5822,7 @@
         <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>7</v>
@@ -5359,10 +5853,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
@@ -5392,10 +5886,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O3"/>
       <c r="P3"/>
@@ -5422,10 +5916,10 @@
         <v>3</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
@@ -5452,7 +5946,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" t="str">
         <f>B2&amp;H2&amp;B3&amp;H3&amp;B4&amp;H4&amp;B5</f>
@@ -5483,10 +5977,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O6"/>
       <c r="P6"/>
@@ -5513,10 +6007,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O7"/>
       <c r="P7"/>
@@ -5543,10 +6037,10 @@
         <v>3</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O8"/>
       <c r="P8"/>
@@ -5573,7 +6067,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" t="str">
         <f>B6&amp;H6&amp;B7&amp;H7&amp;B8&amp;H8&amp;B9</f>
@@ -5605,10 +6099,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O10"/>
       <c r="P10"/>
@@ -5635,10 +6129,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O11"/>
       <c r="P11"/>
@@ -5665,10 +6159,10 @@
         <v>3</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
@@ -5695,7 +6189,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" t="str">
         <f>B10&amp;H10&amp;B11&amp;H11&amp;B12&amp;H12&amp;B13</f>
@@ -5726,10 +6220,10 @@
         <v>5</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14"/>
       <c r="P14"/>
@@ -5756,10 +6250,10 @@
         <v>6</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O15"/>
       <c r="P15"/>
@@ -5786,10 +6280,10 @@
         <v>7</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M16" s="23"/>
       <c r="O16"/>
@@ -5817,7 +6311,7 @@
         <v>8</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K17" t="str">
         <f>B14&amp;H14&amp;B15&amp;H15&amp;B16&amp;H16&amp;B17</f>
@@ -5849,10 +6343,10 @@
         <v>9</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O18"/>
       <c r="P18"/>
@@ -5879,10 +6373,10 @@
         <v>10</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O19"/>
       <c r="P19"/>
@@ -5909,10 +6403,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O20"/>
       <c r="P20"/>
@@ -5939,7 +6433,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K21" t="str">
         <f>B18&amp;H18&amp;B19&amp;H19&amp;B20&amp;H20&amp;B21</f>
@@ -5970,10 +6464,10 @@
         <v>1</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O22"/>
       <c r="P22"/>
@@ -6000,10 +6494,10 @@
         <v>2</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O23"/>
       <c r="P23"/>
@@ -6030,10 +6524,10 @@
         <v>3</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O24">
         <v>100</v>
@@ -6064,7 +6558,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25" t="str">
         <f>B22&amp;H22&amp;B23&amp;H23&amp;B24&amp;H24&amp;B25</f>
@@ -6095,10 +6589,10 @@
         <v>5</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O26"/>
       <c r="P26"/>
@@ -6125,10 +6619,10 @@
         <v>6</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
@@ -6155,10 +6649,10 @@
         <v>7</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O28">
         <v>100</v>
@@ -6189,7 +6683,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29" t="str">
         <f>B26&amp;H26&amp;B27&amp;H27&amp;B28&amp;H28&amp;B29</f>
@@ -6220,10 +6714,10 @@
         <v>9</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J30" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O30"/>
       <c r="P30"/>
@@ -6250,10 +6744,10 @@
         <v>10</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O31">
         <v>100</v>
@@ -6284,10 +6778,10 @@
         <v>11</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O32"/>
       <c r="P32"/>
@@ -6314,7 +6808,7 @@
         <v>12</v>
       </c>
       <c r="J33" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33" t="str">
         <f>B30&amp;H30&amp;B31&amp;H31&amp;B32&amp;H32&amp;B33</f>
@@ -6349,10 +6843,10 @@
         <v>13</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -6379,10 +6873,10 @@
         <v>14</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O35">
         <v>150</v>
@@ -6413,10 +6907,10 @@
         <v>15</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J36" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O36"/>
       <c r="P36"/>
@@ -6443,7 +6937,7 @@
         <v>16</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K37" t="str">
         <f>B34&amp;H34&amp;B35&amp;H35&amp;B36&amp;H36&amp;B37</f>
@@ -6478,10 +6972,10 @@
         <v>1</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J38" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O38"/>
       <c r="P38"/>
@@ -6508,10 +7002,10 @@
         <v>2</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J39" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O39">
         <v>200</v>
@@ -6542,10 +7036,10 @@
         <v>3</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J40" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O40"/>
       <c r="P40"/>
@@ -6572,7 +7066,7 @@
         <v>4</v>
       </c>
       <c r="J41" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K41" t="str">
         <f>B38&amp;H38&amp;B39&amp;H39&amp;B40&amp;H40&amp;B41</f>
@@ -6607,10 +7101,10 @@
         <v>5</v>
       </c>
       <c r="H42" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J42" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O42"/>
       <c r="P42"/>
@@ -6637,10 +7131,10 @@
         <v>6</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J43" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O43">
         <v>250</v>
@@ -6671,10 +7165,10 @@
         <v>7</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J44" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O44"/>
       <c r="P44"/>
@@ -6702,7 +7196,7 @@
       </c>
       <c r="H45" s="38"/>
       <c r="J45" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K45" t="str">
         <f>B42&amp;H42&amp;B43&amp;H43&amp;B44&amp;H44&amp;B45</f>
@@ -6737,10 +7231,10 @@
         <v>9</v>
       </c>
       <c r="H46" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J46" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O46"/>
       <c r="P46"/>
@@ -6767,10 +7261,10 @@
         <v>10</v>
       </c>
       <c r="H47" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J47" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O47">
         <v>300</v>
@@ -6801,10 +7295,10 @@
         <v>11</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J48" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O48"/>
       <c r="P48"/>
@@ -6832,7 +7326,7 @@
       </c>
       <c r="H49" s="38"/>
       <c r="J49" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K49" t="str">
         <f>B46&amp;H46&amp;B47&amp;H47&amp;B48&amp;H48&amp;B49</f>
@@ -6867,10 +7361,10 @@
         <v>13</v>
       </c>
       <c r="H50" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J50" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O50"/>
       <c r="P50"/>
@@ -6897,10 +7391,10 @@
         <v>14</v>
       </c>
       <c r="H51" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J51" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O51">
         <v>350.00000000000006</v>
@@ -6931,10 +7425,10 @@
         <v>15</v>
       </c>
       <c r="H52" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J52" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O52"/>
       <c r="P52"/>
@@ -6961,7 +7455,7 @@
         <v>16</v>
       </c>
       <c r="J53" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K53" t="str">
         <f>B50&amp;H50&amp;B51&amp;H51&amp;B52&amp;H52&amp;B53</f>
@@ -6996,10 +7490,10 @@
         <v>1</v>
       </c>
       <c r="H54" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J54" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O54"/>
       <c r="P54"/>
@@ -7026,10 +7520,10 @@
         <v>2</v>
       </c>
       <c r="H55" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J55" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O55">
         <v>400</v>
@@ -7060,10 +7554,10 @@
         <v>3</v>
       </c>
       <c r="H56" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J56" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O56"/>
       <c r="P56"/>
@@ -7090,7 +7584,7 @@
         <v>4</v>
       </c>
       <c r="J57" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K57" t="str">
         <f>B54&amp;H54&amp;B55&amp;H55&amp;B56&amp;H56&amp;B57</f>
@@ -7125,10 +7619,10 @@
         <v>5</v>
       </c>
       <c r="H58" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J58" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O58"/>
       <c r="P58"/>
@@ -7155,10 +7649,10 @@
         <v>6</v>
       </c>
       <c r="H59" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J59" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O59">
         <v>450</v>
@@ -7189,10 +7683,10 @@
         <v>7</v>
       </c>
       <c r="H60" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J60" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O60"/>
       <c r="P60"/>
@@ -7219,7 +7713,7 @@
         <v>8</v>
       </c>
       <c r="J61" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K61" t="str">
         <f>B58&amp;H58&amp;B59&amp;H59&amp;B60&amp;H60&amp;B61</f>
@@ -7254,10 +7748,10 @@
         <v>9</v>
       </c>
       <c r="H62" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J62" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O62"/>
       <c r="P62"/>
@@ -7284,10 +7778,10 @@
         <v>10</v>
       </c>
       <c r="H63" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J63" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O63">
         <v>500</v>
@@ -7318,10 +7812,10 @@
         <v>11</v>
       </c>
       <c r="H64" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J64" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O64"/>
       <c r="P64"/>
@@ -7348,7 +7842,7 @@
         <v>12</v>
       </c>
       <c r="J65" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K65" t="str">
         <f>B62&amp;H62&amp;B63&amp;H63&amp;B64&amp;H64&amp;B65</f>
@@ -7383,10 +7877,10 @@
         <v>13</v>
       </c>
       <c r="H66" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J66" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O66"/>
       <c r="P66"/>
@@ -7413,10 +7907,10 @@
         <v>14</v>
       </c>
       <c r="H67" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J67" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O67">
         <v>550</v>
@@ -7447,10 +7941,10 @@
         <v>15</v>
       </c>
       <c r="H68" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J68" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O68"/>
       <c r="P68"/>
@@ -7477,7 +7971,7 @@
         <v>16</v>
       </c>
       <c r="J69" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K69" t="str">
         <f>B66&amp;H66&amp;B67&amp;H67&amp;B68&amp;H68&amp;B69</f>

--- a/Table/client/lua/exe/temp/T 天机印套装表.xlsx
+++ b/Table/client/lua/exe/temp/T 天机印套装表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\td1_2019_and_hg\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -117,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="132">
   <si>
     <t>套装ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -225,6 +219,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>分类</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -526,271 +524,6 @@
   </si>
   <si>
     <t>,</t>
-  </si>
-  <si>
-    <t>凡.契約印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>優.耀魄印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>珍.鬥魂印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>絕.渾沌印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>絕.不朽印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>絕.幻月印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>絕.星辰印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙.天啟印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神.女媧印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神.盤古印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神.誅天印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>범. 계약인장</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>범. 계약인장</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>우수. 요백인장</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>진귀. 무혼인장</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>진귀. 투혼인장</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="63"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>진귀. 서혼인장</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>절대. 혼돈인장</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>절대. 불후인장</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="63"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>절대. 환월인장</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>절대. 성진인장</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>선인. 천괴인장</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>선인. 천겁인장</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>선인. 천강인장</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>선인. 천계인장</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>신. 여와인장</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="63"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>신. 복희인장</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>신. 반고인장</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>신. 주천인장</t>
-    </r>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -800,7 +533,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -883,26 +616,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="63"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1460,28 +1173,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD69"/>
+  <dimension ref="A1:AC69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="9" style="9"/>
-    <col min="4" max="5" width="9" style="22"/>
-    <col min="6" max="6" width="14.375" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="22"/>
-    <col min="8" max="8" width="63.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="6.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="5.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="9"/>
+    <col min="4" max="6" width="9" style="22"/>
+    <col min="7" max="7" width="63.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="6.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="5.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1492,55 +1203,54 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5">
         <v>2</v>
@@ -1552,25 +1262,25 @@
         <v>101</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5">
+        <v>179</v>
+      </c>
       <c r="K2" s="5">
         <v>179</v>
       </c>
-      <c r="L2" s="5">
-        <v>179</v>
-      </c>
+      <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="N2" s="5">
+        <v>57</v>
+      </c>
       <c r="O2" s="5">
         <v>57</v>
       </c>
@@ -1583,9 +1293,7 @@
       <c r="R2" s="5">
         <v>57</v>
       </c>
-      <c r="S2" s="5">
-        <v>57</v>
-      </c>
+      <c r="S2" s="8"/>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
@@ -1596,11 +1304,10 @@
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
@@ -1612,25 +1319,25 @@
         <v>101</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7">
+        <v>35</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7">
         <v>5377</v>
       </c>
-      <c r="J3" s="5">
+      <c r="I3" s="5">
         <v>268</v>
       </c>
+      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="N3" s="5">
+        <v>86</v>
+      </c>
       <c r="O3" s="5">
         <v>86</v>
       </c>
@@ -1643,9 +1350,7 @@
       <c r="R3" s="5">
         <v>86</v>
       </c>
-      <c r="S3" s="5">
-        <v>86</v>
-      </c>
+      <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
@@ -1656,11 +1361,10 @@
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5">
         <v>6</v>
@@ -1672,25 +1376,25 @@
         <v>101</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5">
+        <v>219</v>
+      </c>
       <c r="K4" s="5">
         <v>219</v>
       </c>
-      <c r="L4" s="5">
-        <v>219</v>
-      </c>
+      <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="N4" s="5">
+        <v>70</v>
+      </c>
       <c r="O4" s="5">
         <v>70</v>
       </c>
@@ -1703,9 +1407,7 @@
       <c r="R4" s="5">
         <v>70</v>
       </c>
-      <c r="S4" s="5">
-        <v>70</v>
-      </c>
+      <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
@@ -1716,11 +1418,10 @@
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="5">
         <v>8</v>
@@ -1732,27 +1433,27 @@
         <v>101</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="7">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="7">
         <v>6572</v>
       </c>
-      <c r="J5" s="5">
+      <c r="I5" s="5">
         <v>328</v>
       </c>
+      <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="N5" s="5">
+        <v>105</v>
+      </c>
       <c r="O5" s="5">
         <v>105</v>
       </c>
@@ -1765,9 +1466,7 @@
       <c r="R5" s="5">
         <v>105</v>
       </c>
-      <c r="S5" s="5">
-        <v>105</v>
-      </c>
+      <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
@@ -1778,9 +1477,8 @@
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1794,25 +1492,25 @@
         <v>201</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5">
+        <v>398</v>
+      </c>
       <c r="K6" s="5">
         <v>398</v>
       </c>
-      <c r="L6" s="5">
-        <v>398</v>
-      </c>
+      <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="N6" s="5">
+        <v>127</v>
+      </c>
       <c r="O6" s="5">
         <v>127</v>
       </c>
@@ -1825,9 +1523,7 @@
       <c r="R6" s="5">
         <v>127</v>
       </c>
-      <c r="S6" s="5">
-        <v>127</v>
-      </c>
+      <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
@@ -1838,11 +1534,10 @@
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="5">
         <v>4</v>
@@ -1854,25 +1549,25 @@
         <v>201</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="7">
+        <v>36</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="7">
         <v>11966</v>
       </c>
-      <c r="J7" s="5">
+      <c r="I7" s="5">
         <v>598</v>
       </c>
+      <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="N7" s="5">
+        <v>191</v>
+      </c>
       <c r="O7" s="5">
         <v>191</v>
       </c>
@@ -1885,9 +1580,7 @@
       <c r="R7" s="5">
         <v>191</v>
       </c>
-      <c r="S7" s="5">
-        <v>191</v>
-      </c>
+      <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
@@ -1898,11 +1591,10 @@
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
@@ -1914,25 +1606,25 @@
         <v>201</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5">
+        <v>487</v>
+      </c>
       <c r="K8" s="5">
         <v>487</v>
       </c>
-      <c r="L8" s="5">
-        <v>487</v>
-      </c>
+      <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="N8" s="5">
+        <v>156</v>
+      </c>
       <c r="O8" s="5">
         <v>156</v>
       </c>
@@ -1945,9 +1637,7 @@
       <c r="R8" s="5">
         <v>156</v>
       </c>
-      <c r="S8" s="5">
-        <v>156</v>
-      </c>
+      <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
@@ -1958,11 +1648,10 @@
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" s="5">
         <v>8</v>
@@ -1974,27 +1663,27 @@
         <v>201</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="7">
+        <v>36</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="7">
         <v>14625</v>
       </c>
-      <c r="J9" s="5">
+      <c r="I9" s="5">
         <v>731</v>
       </c>
+      <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="N9" s="5">
+        <v>234</v>
+      </c>
       <c r="O9" s="5">
         <v>234</v>
       </c>
@@ -2007,9 +1696,7 @@
       <c r="R9" s="5">
         <v>234</v>
       </c>
-      <c r="S9" s="5">
-        <v>234</v>
-      </c>
+      <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
@@ -2020,11 +1707,10 @@
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-    </row>
-    <row r="10" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5">
         <v>2</v>
@@ -2036,25 +1722,25 @@
         <v>301</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5">
+        <v>668</v>
+      </c>
       <c r="K10" s="5">
         <v>668</v>
       </c>
-      <c r="L10" s="5">
-        <v>668</v>
-      </c>
+      <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="N10" s="5">
+        <v>213</v>
+      </c>
       <c r="O10" s="5">
         <v>213</v>
       </c>
@@ -2067,9 +1753,7 @@
       <c r="R10" s="5">
         <v>213</v>
       </c>
-      <c r="S10" s="5">
-        <v>213</v>
-      </c>
+      <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
@@ -2080,11 +1764,10 @@
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-    </row>
-    <row r="11" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" s="5">
         <v>4</v>
@@ -2096,25 +1779,25 @@
         <v>301</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="7">
+        <v>37</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="7">
         <v>20061</v>
       </c>
-      <c r="J11" s="5">
+      <c r="I11" s="5">
         <v>1003</v>
       </c>
+      <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="N11" s="5">
+        <v>320</v>
+      </c>
       <c r="O11" s="5">
         <v>320</v>
       </c>
@@ -2127,9 +1810,7 @@
       <c r="R11" s="5">
         <v>320</v>
       </c>
-      <c r="S11" s="5">
-        <v>320</v>
-      </c>
+      <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
@@ -2140,11 +1821,10 @@
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-    </row>
-    <row r="12" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5">
         <v>6</v>
@@ -2156,25 +1836,25 @@
         <v>301</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5">
+        <v>817</v>
+      </c>
       <c r="K12" s="5">
         <v>817</v>
       </c>
-      <c r="L12" s="5">
-        <v>817</v>
-      </c>
+      <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="N12" s="5">
+        <v>261</v>
+      </c>
       <c r="O12" s="5">
         <v>261</v>
       </c>
@@ -2187,9 +1867,7 @@
       <c r="R12" s="5">
         <v>261</v>
       </c>
-      <c r="S12" s="5">
-        <v>261</v>
-      </c>
+      <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
@@ -2200,11 +1878,10 @@
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-    </row>
-    <row r="13" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5">
         <v>8</v>
@@ -2216,27 +1893,27 @@
         <v>301</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I13" s="7">
+        <v>37</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="7">
         <v>24519</v>
       </c>
-      <c r="J13" s="5">
+      <c r="I13" s="5">
         <v>1225</v>
       </c>
+      <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="N13" s="5">
+        <v>392</v>
+      </c>
       <c r="O13" s="5">
         <v>392</v>
       </c>
@@ -2249,9 +1926,7 @@
       <c r="R13" s="5">
         <v>392</v>
       </c>
-      <c r="S13" s="5">
-        <v>392</v>
-      </c>
+      <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
@@ -2262,11 +1937,10 @@
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-    </row>
-    <row r="14" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
@@ -2278,25 +1952,25 @@
         <v>302</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
+        <v>999</v>
+      </c>
       <c r="K14" s="5">
         <v>999</v>
       </c>
-      <c r="L14" s="5">
-        <v>999</v>
-      </c>
+      <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="N14" s="5">
+        <v>319</v>
+      </c>
       <c r="O14" s="5">
         <v>319</v>
       </c>
@@ -2309,9 +1983,7 @@
       <c r="R14" s="5">
         <v>319</v>
       </c>
-      <c r="S14" s="5">
-        <v>319</v>
-      </c>
+      <c r="S14" s="8"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
@@ -2322,11 +1994,10 @@
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-    </row>
-    <row r="15" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" s="5">
         <v>4</v>
@@ -2338,25 +2009,25 @@
         <v>302</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="36"/>
+        <v>38</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="5">
+        <v>29996</v>
+      </c>
       <c r="I15" s="5">
-        <v>29996</v>
-      </c>
-      <c r="J15" s="5">
         <v>1499</v>
       </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="N15" s="5">
+        <v>479</v>
+      </c>
       <c r="O15" s="5">
         <v>479</v>
       </c>
@@ -2369,9 +2040,7 @@
       <c r="R15" s="5">
         <v>479</v>
       </c>
-      <c r="S15" s="5">
-        <v>479</v>
-      </c>
+      <c r="S15" s="8"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
@@ -2382,11 +2051,10 @@
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-    </row>
-    <row r="16" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5">
         <v>6</v>
@@ -2398,25 +2066,25 @@
         <v>302</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="H16" s="36"/>
+        <v>38</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="J16" s="5">
+        <v>1222</v>
+      </c>
       <c r="K16" s="5">
         <v>1222</v>
       </c>
-      <c r="L16" s="5">
-        <v>1222</v>
-      </c>
+      <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="N16" s="5">
+        <v>391</v>
+      </c>
       <c r="O16" s="5">
         <v>391</v>
       </c>
@@ -2429,9 +2097,7 @@
       <c r="R16" s="5">
         <v>391</v>
       </c>
-      <c r="S16" s="5">
-        <v>391</v>
-      </c>
+      <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
@@ -2442,11 +2108,10 @@
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-    </row>
-    <row r="17" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="5">
         <v>8</v>
@@ -2458,27 +2123,27 @@
         <v>302</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>116</v>
+        <v>38</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="5">
+        <v>36662</v>
       </c>
       <c r="I17" s="5">
-        <v>36662</v>
-      </c>
-      <c r="J17" s="5">
         <v>1833</v>
       </c>
+      <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="N17" s="5">
+        <v>586</v>
+      </c>
       <c r="O17" s="5">
         <v>586</v>
       </c>
@@ -2491,9 +2156,7 @@
       <c r="R17" s="5">
         <v>586</v>
       </c>
-      <c r="S17" s="5">
-        <v>586</v>
-      </c>
+      <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
@@ -2504,11 +2167,10 @@
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-    </row>
-    <row r="18" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="5">
         <v>2</v>
@@ -2520,25 +2182,25 @@
         <v>303</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="J18" s="5">
+        <v>1404</v>
+      </c>
       <c r="K18" s="5">
         <v>1404</v>
       </c>
-      <c r="L18" s="5">
-        <v>1404</v>
-      </c>
+      <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="N18" s="5">
+        <v>449</v>
+      </c>
       <c r="O18" s="5">
         <v>449</v>
       </c>
@@ -2551,9 +2213,7 @@
       <c r="R18" s="5">
         <v>449</v>
       </c>
-      <c r="S18" s="5">
-        <v>449</v>
-      </c>
+      <c r="S18" s="8"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
@@ -2564,11 +2224,10 @@
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-    </row>
-    <row r="19" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" s="5">
         <v>4</v>
@@ -2580,25 +2239,25 @@
         <v>303</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="36"/>
+        <v>39</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="5">
+        <v>42147</v>
+      </c>
       <c r="I19" s="5">
-        <v>42147</v>
-      </c>
-      <c r="J19" s="5">
         <v>2107</v>
       </c>
+      <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="N19" s="5">
+        <v>674</v>
+      </c>
       <c r="O19" s="5">
         <v>674</v>
       </c>
@@ -2611,9 +2270,7 @@
       <c r="R19" s="5">
         <v>674</v>
       </c>
-      <c r="S19" s="5">
-        <v>674</v>
-      </c>
+      <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
@@ -2624,11 +2281,10 @@
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-    </row>
-    <row r="20" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5">
         <v>6</v>
@@ -2640,25 +2296,25 @@
         <v>303</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="J20" s="5">
+        <v>1717</v>
+      </c>
       <c r="K20" s="5">
         <v>1717</v>
       </c>
-      <c r="L20" s="5">
-        <v>1717</v>
-      </c>
+      <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="N20" s="5">
+        <v>549</v>
+      </c>
       <c r="O20" s="5">
         <v>549</v>
       </c>
@@ -2671,9 +2327,7 @@
       <c r="R20" s="5">
         <v>549</v>
       </c>
-      <c r="S20" s="5">
-        <v>549</v>
-      </c>
+      <c r="S20" s="8"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
@@ -2684,11 +2338,10 @@
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-    </row>
-    <row r="21" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" s="5">
         <v>8</v>
@@ -2700,27 +2353,27 @@
         <v>303</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>117</v>
+        <v>39</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="5">
+        <v>51513</v>
       </c>
       <c r="I21" s="5">
-        <v>51513</v>
-      </c>
-      <c r="J21" s="5">
         <v>2575</v>
       </c>
+      <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="N21" s="5">
+        <v>824</v>
+      </c>
       <c r="O21" s="5">
         <v>824</v>
       </c>
@@ -2733,9 +2386,7 @@
       <c r="R21" s="5">
         <v>824</v>
       </c>
-      <c r="S21" s="5">
-        <v>824</v>
-      </c>
+      <c r="S21" s="8"/>
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
@@ -2746,11 +2397,10 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-    </row>
-    <row r="22" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" s="5">
         <v>2</v>
@@ -2762,25 +2412,25 @@
         <v>401</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="J22" s="5">
+        <v>1897</v>
+      </c>
       <c r="K22" s="5">
         <v>1897</v>
       </c>
-      <c r="L22" s="5">
-        <v>1897</v>
-      </c>
+      <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="N22" s="5">
+        <v>607</v>
+      </c>
       <c r="O22" s="5">
         <v>607</v>
       </c>
@@ -2793,9 +2443,7 @@
       <c r="R22" s="5">
         <v>607</v>
       </c>
-      <c r="S22" s="5">
-        <v>607</v>
-      </c>
+      <c r="S22" s="8"/>
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
@@ -2806,11 +2454,10 @@
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-    </row>
-    <row r="23" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B23" s="5">
         <v>4</v>
@@ -2822,25 +2469,25 @@
         <v>401</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="H23" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="5">
+        <v>56925</v>
+      </c>
       <c r="I23" s="5">
-        <v>56925</v>
-      </c>
-      <c r="J23" s="5">
         <v>2846</v>
       </c>
+      <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="N23" s="5">
+        <v>910</v>
+      </c>
       <c r="O23" s="5">
         <v>910</v>
       </c>
@@ -2853,9 +2500,7 @@
       <c r="R23" s="5">
         <v>910</v>
       </c>
-      <c r="S23" s="5">
-        <v>910</v>
-      </c>
+      <c r="S23" s="8"/>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
@@ -2866,11 +2511,10 @@
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-    </row>
-    <row r="24" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" s="5">
         <v>6</v>
@@ -2882,25 +2526,25 @@
         <v>401</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="J24" s="5">
+        <v>2319</v>
+      </c>
       <c r="K24" s="5">
         <v>2319</v>
       </c>
-      <c r="L24" s="5">
-        <v>2319</v>
-      </c>
+      <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="N24" s="5">
+        <v>742</v>
+      </c>
       <c r="O24" s="5">
         <v>742</v>
       </c>
@@ -2913,9 +2557,7 @@
       <c r="R24" s="5">
         <v>742</v>
       </c>
-      <c r="S24" s="5">
-        <v>742</v>
-      </c>
+      <c r="S24" s="8"/>
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
@@ -2926,11 +2568,10 @@
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-    </row>
-    <row r="25" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" s="5">
         <v>8</v>
@@ -2942,27 +2583,27 @@
         <v>401</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>118</v>
+        <v>40</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="5">
+        <v>69575</v>
       </c>
       <c r="I25" s="5">
-        <v>69575</v>
-      </c>
-      <c r="J25" s="5">
         <v>3478</v>
       </c>
+      <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="N25" s="5">
+        <v>1113</v>
+      </c>
       <c r="O25" s="5">
         <v>1113</v>
       </c>
@@ -2975,9 +2616,7 @@
       <c r="R25" s="5">
         <v>1113</v>
       </c>
-      <c r="S25" s="5">
-        <v>1113</v>
-      </c>
+      <c r="S25" s="8"/>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
@@ -2988,11 +2627,10 @@
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-    </row>
-    <row r="26" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" s="5">
         <v>2</v>
@@ -3004,25 +2642,25 @@
         <v>402</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="J26" s="5">
+        <v>2492</v>
+      </c>
       <c r="K26" s="5">
         <v>2492</v>
       </c>
-      <c r="L26" s="5">
-        <v>2492</v>
-      </c>
+      <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="N26" s="5">
+        <v>797</v>
+      </c>
       <c r="O26" s="5">
         <v>797</v>
       </c>
@@ -3035,9 +2673,7 @@
       <c r="R26" s="5">
         <v>797</v>
       </c>
-      <c r="S26" s="5">
-        <v>797</v>
-      </c>
+      <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
@@ -3048,11 +2684,10 @@
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-    </row>
-    <row r="27" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" s="5">
         <v>4</v>
@@ -3064,25 +2699,25 @@
         <v>402</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="5">
+        <v>74784</v>
+      </c>
       <c r="I27" s="5">
-        <v>74784</v>
-      </c>
-      <c r="J27" s="5">
         <v>3739</v>
       </c>
+      <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="N27" s="5">
+        <v>1196</v>
+      </c>
       <c r="O27" s="5">
         <v>1196</v>
       </c>
@@ -3095,9 +2730,7 @@
       <c r="R27" s="5">
         <v>1196</v>
       </c>
-      <c r="S27" s="5">
-        <v>1196</v>
-      </c>
+      <c r="S27" s="8"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
@@ -3108,11 +2741,10 @@
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-    </row>
-    <row r="28" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28" s="5">
         <v>6</v>
@@ -3124,25 +2756,25 @@
         <v>402</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="H28" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="J28" s="5">
+        <v>3046</v>
+      </c>
       <c r="K28" s="5">
         <v>3046</v>
       </c>
-      <c r="L28" s="5">
-        <v>3046</v>
-      </c>
+      <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="N28" s="5">
+        <v>974</v>
+      </c>
       <c r="O28" s="5">
         <v>974</v>
       </c>
@@ -3155,9 +2787,7 @@
       <c r="R28" s="5">
         <v>974</v>
       </c>
-      <c r="S28" s="5">
-        <v>974</v>
-      </c>
+      <c r="S28" s="8"/>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
@@ -3168,11 +2798,10 @@
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
-      <c r="AD28" s="8"/>
-    </row>
-    <row r="29" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" s="5">
         <v>8</v>
@@ -3184,27 +2813,27 @@
         <v>402</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>119</v>
+        <v>41</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="37">
+        <v>91403</v>
       </c>
       <c r="I29" s="37">
-        <v>91403</v>
-      </c>
-      <c r="J29" s="37">
         <v>4570</v>
       </c>
+      <c r="J29" s="37"/>
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
       <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
+      <c r="N29" s="37">
+        <v>1462</v>
+      </c>
       <c r="O29" s="37">
         <v>1462</v>
       </c>
@@ -3217,9 +2846,7 @@
       <c r="R29" s="37">
         <v>1462</v>
       </c>
-      <c r="S29" s="37">
-        <v>1462</v>
-      </c>
+      <c r="S29" s="8"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
@@ -3230,11 +2857,10 @@
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
-      <c r="AD29" s="8"/>
-    </row>
-    <row r="30" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30" s="5">
         <v>2</v>
@@ -3246,40 +2872,38 @@
         <v>403</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="H30" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="37"/>
       <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
+      <c r="J30" s="37">
+        <v>3761</v>
+      </c>
       <c r="K30" s="37">
-        <v>3761</v>
-      </c>
-      <c r="L30" s="37">
         <v>3009</v>
       </c>
+      <c r="L30" s="37"/>
       <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
+      <c r="N30" s="37">
+        <v>812</v>
+      </c>
       <c r="O30" s="37">
-        <v>812</v>
+        <v>975</v>
       </c>
       <c r="P30" s="37">
-        <v>975</v>
+        <v>1083</v>
       </c>
       <c r="Q30" s="37">
-        <v>1083</v>
+        <v>1191</v>
       </c>
       <c r="R30" s="37">
-        <v>1191</v>
-      </c>
-      <c r="S30" s="37">
         <v>1354</v>
       </c>
+      <c r="S30" s="8"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
@@ -3290,11 +2914,10 @@
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
-      <c r="AD30" s="8"/>
-    </row>
-    <row r="31" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B31" s="5">
         <v>4</v>
@@ -3306,44 +2929,42 @@
         <v>403</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="H31" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="37">
+        <v>91069</v>
+      </c>
       <c r="I31" s="37">
-        <v>91069</v>
-      </c>
-      <c r="J31" s="37">
         <v>3642</v>
       </c>
+      <c r="J31" s="37"/>
       <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
+      <c r="L31" s="17">
+        <v>100</v>
+      </c>
       <c r="M31" s="17">
         <v>100</v>
       </c>
-      <c r="N31" s="17">
-        <v>100</v>
+      <c r="N31" s="37">
+        <v>983</v>
       </c>
       <c r="O31" s="37">
-        <v>983</v>
+        <v>1180</v>
       </c>
       <c r="P31" s="37">
-        <v>1180</v>
+        <v>1311</v>
       </c>
       <c r="Q31" s="37">
-        <v>1311</v>
+        <v>1442</v>
       </c>
       <c r="R31" s="37">
-        <v>1442</v>
-      </c>
-      <c r="S31" s="37">
         <v>1639</v>
       </c>
+      <c r="S31" s="8"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
@@ -3354,11 +2975,10 @@
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
-      <c r="AD31" s="8"/>
-    </row>
-    <row r="32" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B32" s="5">
         <v>6</v>
@@ -3370,40 +2990,38 @@
         <v>403</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="37"/>
+        <v>51</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37">
+        <v>4276</v>
+      </c>
       <c r="J32" s="37">
-        <v>4276</v>
-      </c>
-      <c r="K32" s="37">
         <v>5345</v>
       </c>
+      <c r="K32" s="37"/>
       <c r="L32" s="37"/>
       <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
+      <c r="N32" s="37">
+        <v>1154</v>
+      </c>
       <c r="O32" s="37">
-        <v>1154</v>
+        <v>1385</v>
       </c>
       <c r="P32" s="37">
-        <v>1385</v>
+        <v>1539</v>
       </c>
       <c r="Q32" s="37">
-        <v>1539</v>
+        <v>1693</v>
       </c>
       <c r="R32" s="37">
-        <v>1693</v>
-      </c>
-      <c r="S32" s="37">
         <v>1924</v>
       </c>
+      <c r="S32" s="8"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
@@ -3414,11 +3032,10 @@
       <c r="AA32" s="8"/>
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
-      <c r="AD32" s="8"/>
-    </row>
-    <row r="33" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" s="5">
         <v>8</v>
@@ -3430,46 +3047,44 @@
         <v>403</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I33" s="5">
+        <v>51</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="5">
         <v>122746</v>
       </c>
+      <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5">
+      <c r="K33" s="5">
         <v>4909</v>
+      </c>
+      <c r="L33" s="17">
+        <v>100</v>
       </c>
       <c r="M33" s="17">
         <v>100</v>
       </c>
-      <c r="N33" s="17">
-        <v>100</v>
+      <c r="N33" s="5">
+        <v>1325</v>
       </c>
       <c r="O33" s="5">
-        <v>1325</v>
+        <v>1590</v>
       </c>
       <c r="P33" s="5">
-        <v>1590</v>
+        <v>1767</v>
       </c>
       <c r="Q33" s="5">
-        <v>1767</v>
+        <v>1944</v>
       </c>
       <c r="R33" s="5">
-        <v>1944</v>
-      </c>
-      <c r="S33" s="5">
         <v>2209</v>
       </c>
+      <c r="S33" s="8"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
@@ -3480,11 +3095,10 @@
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-    </row>
-    <row r="34" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B34" s="5">
         <v>2</v>
@@ -3496,25 +3110,25 @@
         <v>404</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="H34" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="J34" s="5">
+        <v>5862</v>
+      </c>
       <c r="K34" s="5">
         <v>5862</v>
       </c>
-      <c r="L34" s="5">
-        <v>5862</v>
-      </c>
+      <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="N34" s="5">
+        <v>1875</v>
+      </c>
       <c r="O34" s="5">
         <v>1875</v>
       </c>
@@ -3527,9 +3141,7 @@
       <c r="R34" s="5">
         <v>1875</v>
       </c>
-      <c r="S34" s="5">
-        <v>1875</v>
-      </c>
+      <c r="S34" s="8"/>
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
@@ -3540,11 +3152,10 @@
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
-      <c r="AD34" s="8"/>
-    </row>
-    <row r="35" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B35" s="5">
         <v>4</v>
@@ -3556,28 +3167,28 @@
         <v>404</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="H35" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="5">
+        <v>108227</v>
+      </c>
       <c r="I35" s="5">
-        <v>108227</v>
-      </c>
-      <c r="J35" s="5">
         <v>5411</v>
       </c>
+      <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
+      <c r="L35" s="17">
+        <v>150</v>
+      </c>
       <c r="M35" s="17">
         <v>150</v>
       </c>
-      <c r="N35" s="17">
-        <v>150</v>
+      <c r="N35" s="5">
+        <v>1731</v>
       </c>
       <c r="O35" s="5">
         <v>1731</v>
@@ -3591,9 +3202,7 @@
       <c r="R35" s="5">
         <v>1731</v>
       </c>
-      <c r="S35" s="5">
-        <v>1731</v>
-      </c>
+      <c r="S35" s="8"/>
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
@@ -3604,11 +3213,10 @@
       <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
-      <c r="AD35" s="8"/>
-    </row>
-    <row r="36" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36" s="5">
         <v>6</v>
@@ -3620,25 +3228,25 @@
         <v>404</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="5">
+        <v>42</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="5">
         <v>103718</v>
       </c>
+      <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5">
+      <c r="K36" s="5">
         <v>5185</v>
       </c>
+      <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
+      <c r="N36" s="5">
+        <v>1659</v>
+      </c>
       <c r="O36" s="5">
         <v>1659</v>
       </c>
@@ -3651,9 +3259,7 @@
       <c r="R36" s="5">
         <v>1659</v>
       </c>
-      <c r="S36" s="5">
-        <v>1659</v>
-      </c>
+      <c r="S36" s="8"/>
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
@@ -3664,11 +3270,10 @@
       <c r="AA36" s="8"/>
       <c r="AB36" s="8"/>
       <c r="AC36" s="8"/>
-      <c r="AD36" s="8"/>
-    </row>
-    <row r="37" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37" s="5">
         <v>8</v>
@@ -3680,30 +3285,30 @@
         <v>404</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="G37" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I37" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5">
+        <v>6087</v>
+      </c>
       <c r="J37" s="5">
         <v>6087</v>
       </c>
-      <c r="K37" s="5">
-        <v>6087</v>
-      </c>
-      <c r="L37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="17">
+        <v>150</v>
+      </c>
       <c r="M37" s="17">
         <v>150</v>
       </c>
-      <c r="N37" s="17">
-        <v>150</v>
+      <c r="N37" s="5">
+        <v>1948</v>
       </c>
       <c r="O37" s="5">
         <v>1948</v>
@@ -3717,9 +3322,7 @@
       <c r="R37" s="5">
         <v>1948</v>
       </c>
-      <c r="S37" s="5">
-        <v>1948</v>
-      </c>
+      <c r="S37" s="8"/>
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
@@ -3730,11 +3333,10 @@
       <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
-      <c r="AD37" s="8"/>
-    </row>
-    <row r="38" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B38" s="5">
         <v>2</v>
@@ -3746,40 +3348,38 @@
         <v>501</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="J38" s="5">
+        <v>5941</v>
+      </c>
       <c r="K38" s="5">
-        <v>5941</v>
-      </c>
-      <c r="L38" s="5">
         <v>4753</v>
       </c>
+      <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+      <c r="N38" s="5">
+        <v>1283</v>
+      </c>
       <c r="O38" s="5">
-        <v>1283</v>
+        <v>1539</v>
       </c>
       <c r="P38" s="5">
-        <v>1539</v>
+        <v>1711</v>
       </c>
       <c r="Q38" s="5">
-        <v>1711</v>
+        <v>1882</v>
       </c>
       <c r="R38" s="5">
-        <v>1882</v>
-      </c>
-      <c r="S38" s="5">
         <v>2138</v>
       </c>
+      <c r="S38" s="8"/>
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
@@ -3790,11 +3390,10 @@
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
-      <c r="AD38" s="8"/>
-    </row>
-    <row r="39" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39" s="5">
         <v>4</v>
@@ -3806,44 +3405,42 @@
         <v>501</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H39" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="5">
+        <v>143842</v>
+      </c>
       <c r="I39" s="5">
-        <v>143842</v>
-      </c>
-      <c r="J39" s="5">
         <v>5753</v>
       </c>
+      <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
+      <c r="L39" s="17">
+        <v>200</v>
+      </c>
       <c r="M39" s="17">
         <v>200</v>
       </c>
-      <c r="N39" s="17">
-        <v>200</v>
+      <c r="N39" s="5">
+        <v>1553</v>
       </c>
       <c r="O39" s="5">
-        <v>1553</v>
+        <v>1864</v>
       </c>
       <c r="P39" s="5">
-        <v>1864</v>
+        <v>2071</v>
       </c>
       <c r="Q39" s="5">
-        <v>2071</v>
+        <v>2278</v>
       </c>
       <c r="R39" s="5">
-        <v>2278</v>
-      </c>
-      <c r="S39" s="5">
         <v>2589</v>
       </c>
+      <c r="S39" s="8"/>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
@@ -3854,11 +3451,10 @@
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
-      <c r="AD39" s="8"/>
-    </row>
-    <row r="40" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B40" s="5">
         <v>6</v>
@@ -3870,40 +3466,38 @@
         <v>501</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5">
+        <v>6754</v>
+      </c>
       <c r="J40" s="5">
-        <v>6754</v>
-      </c>
-      <c r="K40" s="5">
         <v>8442</v>
       </c>
+      <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
+      <c r="N40" s="5">
+        <v>1823</v>
+      </c>
       <c r="O40" s="5">
-        <v>1823</v>
+        <v>2188</v>
       </c>
       <c r="P40" s="5">
-        <v>2188</v>
+        <v>2431</v>
       </c>
       <c r="Q40" s="5">
-        <v>2431</v>
+        <v>2674</v>
       </c>
       <c r="R40" s="5">
-        <v>2674</v>
-      </c>
-      <c r="S40" s="5">
         <v>3039</v>
       </c>
+      <c r="S40" s="8"/>
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
@@ -3914,11 +3508,10 @@
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
-      <c r="AD40" s="8"/>
-    </row>
-    <row r="41" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41" s="5">
         <v>8</v>
@@ -3930,46 +3523,44 @@
         <v>501</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F41" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="G41" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I41" s="5">
+        <v>43</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" s="5">
         <v>193874</v>
       </c>
+      <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5">
+      <c r="K41" s="5">
         <v>7754</v>
+      </c>
+      <c r="L41" s="17">
+        <v>200</v>
       </c>
       <c r="M41" s="17">
         <v>200</v>
       </c>
-      <c r="N41" s="17">
-        <v>200</v>
+      <c r="N41" s="5">
+        <v>2093</v>
       </c>
       <c r="O41" s="5">
-        <v>2093</v>
+        <v>2512</v>
       </c>
       <c r="P41" s="5">
-        <v>2512</v>
+        <v>2791</v>
       </c>
       <c r="Q41" s="5">
-        <v>2791</v>
+        <v>3070</v>
       </c>
       <c r="R41" s="5">
-        <v>3070</v>
-      </c>
-      <c r="S41" s="5">
         <v>3489</v>
       </c>
+      <c r="S41" s="8"/>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
@@ -3980,11 +3571,10 @@
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
-      <c r="AD41" s="8"/>
-    </row>
-    <row r="42" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B42" s="5">
         <v>2</v>
@@ -3999,22 +3589,22 @@
         <v>26</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="G42" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="J42" s="5">
+        <v>7985</v>
+      </c>
       <c r="K42" s="5">
         <v>7985</v>
       </c>
-      <c r="L42" s="5">
-        <v>7985</v>
-      </c>
+      <c r="L42" s="5"/>
       <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
+      <c r="N42" s="5">
+        <v>2555</v>
+      </c>
       <c r="O42" s="5">
         <v>2555</v>
       </c>
@@ -4027,9 +3617,7 @@
       <c r="R42" s="5">
         <v>2555</v>
       </c>
-      <c r="S42" s="5">
-        <v>2555</v>
-      </c>
+      <c r="S42" s="8"/>
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
@@ -4040,9 +3628,8 @@
       <c r="AA42" s="8"/>
       <c r="AB42" s="8"/>
       <c r="AC42" s="8"/>
-      <c r="AD42" s="8"/>
-    </row>
-    <row r="43" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>24</v>
       </c>
@@ -4059,25 +3646,25 @@
         <v>26</v>
       </c>
       <c r="F43" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="G43" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="5">
+        <v>166647</v>
+      </c>
       <c r="I43" s="5">
-        <v>166647</v>
-      </c>
-      <c r="J43" s="5">
         <v>8332</v>
       </c>
+      <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
+      <c r="L43" s="17">
+        <v>250</v>
+      </c>
       <c r="M43" s="17">
         <v>250</v>
       </c>
-      <c r="N43" s="17">
-        <v>250</v>
+      <c r="N43" s="5">
+        <v>2666</v>
       </c>
       <c r="O43" s="5">
         <v>2666</v>
@@ -4091,9 +3678,7 @@
       <c r="R43" s="5">
         <v>2666</v>
       </c>
-      <c r="S43" s="5">
-        <v>2666</v>
-      </c>
+      <c r="S43" s="8"/>
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
@@ -4104,9 +3689,8 @@
       <c r="AA43" s="8"/>
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-    </row>
-    <row r="44" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>25</v>
       </c>
@@ -4123,22 +3707,22 @@
         <v>26</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="G44" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="5">
+        <v>44</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="5">
         <v>180534</v>
       </c>
+      <c r="I44" s="5"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5">
+      <c r="K44" s="5">
         <v>9026</v>
       </c>
+      <c r="L44" s="5"/>
       <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
+      <c r="N44" s="5">
+        <v>2888</v>
+      </c>
       <c r="O44" s="5">
         <v>2888</v>
       </c>
@@ -4151,9 +3735,7 @@
       <c r="R44" s="5">
         <v>2888</v>
       </c>
-      <c r="S44" s="5">
-        <v>2888</v>
-      </c>
+      <c r="S44" s="8"/>
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
@@ -4164,9 +3746,8 @@
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
-      <c r="AD44" s="8"/>
-    </row>
-    <row r="45" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>26</v>
       </c>
@@ -4183,27 +3764,27 @@
         <v>26</v>
       </c>
       <c r="F45" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="G45" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I45" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5">
+        <v>9373</v>
+      </c>
       <c r="J45" s="5">
         <v>9373</v>
       </c>
-      <c r="K45" s="5">
-        <v>9373</v>
-      </c>
-      <c r="L45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="17">
+        <v>250</v>
+      </c>
       <c r="M45" s="17">
         <v>250</v>
       </c>
-      <c r="N45" s="17">
-        <v>250</v>
+      <c r="N45" s="5">
+        <v>2999</v>
       </c>
       <c r="O45" s="5">
         <v>2999</v>
@@ -4217,9 +3798,7 @@
       <c r="R45" s="5">
         <v>2999</v>
       </c>
-      <c r="S45" s="5">
-        <v>2999</v>
-      </c>
+      <c r="S45" s="8"/>
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
@@ -4230,11 +3809,10 @@
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
-      <c r="AD45" s="8"/>
-    </row>
-    <row r="46" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" s="5">
         <v>2</v>
@@ -4249,37 +3827,35 @@
         <v>29</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="G46" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
+      <c r="J46" s="5">
+        <v>8949</v>
+      </c>
       <c r="K46" s="5">
-        <v>8949</v>
-      </c>
-      <c r="L46" s="5">
         <v>7159</v>
       </c>
+      <c r="L46" s="5"/>
       <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
+      <c r="N46" s="5">
+        <v>1933</v>
+      </c>
       <c r="O46" s="5">
-        <v>1933</v>
+        <v>2319</v>
       </c>
       <c r="P46" s="5">
-        <v>2319</v>
+        <v>2577</v>
       </c>
       <c r="Q46" s="5">
-        <v>2577</v>
+        <v>2835</v>
       </c>
       <c r="R46" s="5">
-        <v>2835</v>
-      </c>
-      <c r="S46" s="5">
         <v>3221</v>
       </c>
+      <c r="S46" s="8"/>
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
@@ -4290,9 +3866,8 @@
       <c r="AA46" s="8"/>
       <c r="AB46" s="8"/>
       <c r="AC46" s="8"/>
-      <c r="AD46" s="8"/>
-    </row>
-    <row r="47" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>27</v>
       </c>
@@ -4309,41 +3884,39 @@
         <v>29</v>
       </c>
       <c r="F47" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="G47" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H47" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="5">
+        <v>216676</v>
+      </c>
       <c r="I47" s="5">
-        <v>216676</v>
-      </c>
-      <c r="J47" s="5">
         <v>8667</v>
       </c>
+      <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
+      <c r="L47" s="17">
+        <v>300</v>
+      </c>
       <c r="M47" s="17">
         <v>300</v>
       </c>
-      <c r="N47" s="17">
-        <v>300</v>
+      <c r="N47" s="5">
+        <v>2340</v>
       </c>
       <c r="O47" s="5">
-        <v>2340</v>
+        <v>2808</v>
       </c>
       <c r="P47" s="5">
-        <v>2808</v>
+        <v>3120</v>
       </c>
       <c r="Q47" s="5">
-        <v>3120</v>
+        <v>3432</v>
       </c>
       <c r="R47" s="5">
-        <v>3432</v>
-      </c>
-      <c r="S47" s="5">
         <v>3900</v>
       </c>
+      <c r="S47" s="8"/>
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
@@ -4354,9 +3927,8 @@
       <c r="AA47" s="8"/>
       <c r="AB47" s="8"/>
       <c r="AC47" s="8"/>
-      <c r="AD47" s="8"/>
-    </row>
-    <row r="48" spans="1:30" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:29" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>28</v>
       </c>
@@ -4373,37 +3945,35 @@
         <v>29</v>
       </c>
       <c r="F48" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="G48" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5">
+        <v>10174</v>
+      </c>
       <c r="J48" s="5">
-        <v>10174</v>
-      </c>
-      <c r="K48" s="5">
         <v>12717</v>
       </c>
+      <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
+      <c r="N48" s="5">
+        <v>2747</v>
+      </c>
       <c r="O48" s="5">
-        <v>2747</v>
+        <v>3296</v>
       </c>
       <c r="P48" s="5">
-        <v>3296</v>
+        <v>3662</v>
       </c>
       <c r="Q48" s="5">
-        <v>3662</v>
+        <v>4029</v>
       </c>
       <c r="R48" s="5">
-        <v>4029</v>
-      </c>
-      <c r="S48" s="5">
         <v>4578</v>
       </c>
+      <c r="S48" s="8"/>
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
@@ -4414,9 +3984,8 @@
       <c r="AA48" s="8"/>
       <c r="AB48" s="8"/>
       <c r="AC48" s="8"/>
-      <c r="AD48" s="8"/>
-    </row>
-    <row r="49" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A49" s="37" t="s">
         <v>29</v>
       </c>
@@ -4433,47 +4002,44 @@
         <v>29</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="G49" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="I49" s="37">
+        <v>45</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" s="37">
         <v>292042</v>
       </c>
+      <c r="I49" s="37"/>
       <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37">
+      <c r="K49" s="37">
         <v>11681</v>
+      </c>
+      <c r="L49" s="17">
+        <v>300</v>
       </c>
       <c r="M49" s="17">
         <v>300</v>
       </c>
-      <c r="N49" s="17">
-        <v>300</v>
+      <c r="N49" s="37">
+        <v>3154</v>
       </c>
       <c r="O49" s="37">
-        <v>3154</v>
+        <v>3784</v>
       </c>
       <c r="P49" s="37">
-        <v>3784</v>
+        <v>4205</v>
       </c>
       <c r="Q49" s="37">
-        <v>4205</v>
+        <v>4625</v>
       </c>
       <c r="R49" s="37">
-        <v>4625</v>
-      </c>
-      <c r="S49" s="37">
         <v>5256</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A50" s="37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B50" s="37">
         <v>2</v>
@@ -4485,44 +4051,41 @@
         <v>504</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F50" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="H50" s="35"/>
+        <v>46</v>
+      </c>
+      <c r="G50" s="35"/>
+      <c r="H50" s="37"/>
       <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
+      <c r="J50" s="37">
+        <v>8771</v>
+      </c>
       <c r="K50" s="37">
-        <v>8771</v>
-      </c>
-      <c r="L50" s="37">
         <v>10720</v>
       </c>
+      <c r="L50" s="37"/>
       <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
+      <c r="N50" s="37">
+        <v>2339</v>
+      </c>
       <c r="O50" s="37">
-        <v>2339</v>
+        <v>2806</v>
       </c>
       <c r="P50" s="37">
-        <v>2806</v>
+        <v>3118</v>
       </c>
       <c r="Q50" s="37">
-        <v>3118</v>
+        <v>3430</v>
       </c>
       <c r="R50" s="37">
-        <v>3430</v>
-      </c>
-      <c r="S50" s="37">
         <v>3898</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A51" s="37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B51" s="37">
         <v>4</v>
@@ -4534,48 +4097,45 @@
         <v>504</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="G51" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="H51" s="35"/>
+        <v>46</v>
+      </c>
+      <c r="G51" s="35"/>
+      <c r="H51" s="37">
+        <v>212366</v>
+      </c>
       <c r="I51" s="37">
-        <v>212366</v>
-      </c>
-      <c r="J51" s="37">
         <v>12977</v>
       </c>
+      <c r="J51" s="37"/>
       <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
+      <c r="L51" s="17">
+        <v>350.00000000000006</v>
+      </c>
       <c r="M51" s="17">
         <v>350.00000000000006</v>
       </c>
-      <c r="N51" s="17">
-        <v>350.00000000000006</v>
+      <c r="N51" s="37">
+        <v>2831</v>
       </c>
       <c r="O51" s="37">
-        <v>2831</v>
+        <v>3397</v>
       </c>
       <c r="P51" s="37">
-        <v>3397</v>
+        <v>3775</v>
       </c>
       <c r="Q51" s="37">
-        <v>3775</v>
+        <v>4152</v>
       </c>
       <c r="R51" s="37">
-        <v>4152</v>
-      </c>
-      <c r="S51" s="37">
         <v>4719</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A52" s="37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B52" s="37">
         <v>6</v>
@@ -4587,44 +4147,41 @@
         <v>504</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F52" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="G52" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="H52" s="35"/>
-      <c r="I52" s="37"/>
+        <v>46</v>
+      </c>
+      <c r="G52" s="35"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37">
+        <v>15234</v>
+      </c>
       <c r="J52" s="37">
-        <v>15234</v>
-      </c>
-      <c r="K52" s="37">
         <v>12464</v>
       </c>
+      <c r="K52" s="37"/>
       <c r="L52" s="37"/>
       <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
+      <c r="N52" s="37">
+        <v>3323</v>
+      </c>
       <c r="O52" s="37">
-        <v>3323</v>
+        <v>3988</v>
       </c>
       <c r="P52" s="37">
-        <v>3988</v>
+        <v>4431</v>
       </c>
       <c r="Q52" s="37">
-        <v>4431</v>
+        <v>4875</v>
       </c>
       <c r="R52" s="37">
-        <v>4875</v>
-      </c>
-      <c r="S52" s="37">
         <v>5539</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A53" s="37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B53" s="37">
         <v>8</v>
@@ -4636,50 +4193,47 @@
         <v>504</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="G53" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="H53" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="I53" s="37">
+        <v>46</v>
+      </c>
+      <c r="G53" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="H53" s="37">
         <v>286232</v>
       </c>
+      <c r="I53" s="37"/>
       <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37">
+      <c r="K53" s="37">
         <v>17491</v>
+      </c>
+      <c r="L53" s="17">
+        <v>350.00000000000006</v>
       </c>
       <c r="M53" s="17">
         <v>350.00000000000006</v>
       </c>
-      <c r="N53" s="17">
-        <v>350.00000000000006</v>
+      <c r="N53" s="37">
+        <v>3816</v>
       </c>
       <c r="O53" s="37">
-        <v>3816</v>
+        <v>4579</v>
       </c>
       <c r="P53" s="37">
-        <v>4579</v>
+        <v>5088</v>
       </c>
       <c r="Q53" s="37">
-        <v>5088</v>
+        <v>5597</v>
       </c>
       <c r="R53" s="37">
-        <v>5597</v>
-      </c>
-      <c r="S53" s="37">
         <v>6360</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A54" s="37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B54" s="37">
         <v>2</v>
@@ -4691,25 +4245,25 @@
         <v>601</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F54" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="G54" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="H54" s="35"/>
+        <v>47</v>
+      </c>
+      <c r="G54" s="35"/>
+      <c r="H54" s="37"/>
       <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
+      <c r="J54" s="37">
+        <v>14159</v>
+      </c>
       <c r="K54" s="37">
         <v>14159</v>
       </c>
-      <c r="L54" s="37">
-        <v>14159</v>
-      </c>
+      <c r="L54" s="37"/>
       <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
+      <c r="N54" s="37">
+        <v>4530</v>
+      </c>
       <c r="O54" s="37">
         <v>4530</v>
       </c>
@@ -4722,13 +4276,10 @@
       <c r="R54" s="37">
         <v>4530</v>
       </c>
-      <c r="S54" s="37">
-        <v>4530</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A55" s="37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B55" s="37">
         <v>4</v>
@@ -4740,28 +4291,28 @@
         <v>601</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="G55" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="H55" s="35"/>
+        <v>47</v>
+      </c>
+      <c r="G55" s="35"/>
+      <c r="H55" s="37">
+        <v>295498</v>
+      </c>
       <c r="I55" s="37">
-        <v>295498</v>
-      </c>
-      <c r="J55" s="37">
         <v>14774</v>
       </c>
+      <c r="J55" s="37"/>
       <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
+      <c r="L55" s="17">
+        <v>400</v>
+      </c>
       <c r="M55" s="17">
         <v>400</v>
       </c>
-      <c r="N55" s="17">
-        <v>400</v>
+      <c r="N55" s="37">
+        <v>4727</v>
       </c>
       <c r="O55" s="37">
         <v>4727</v>
@@ -4775,13 +4326,10 @@
       <c r="R55" s="37">
         <v>4727</v>
       </c>
-      <c r="S55" s="37">
-        <v>4727</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A56" s="37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B56" s="37">
         <v>6</v>
@@ -4793,25 +4341,25 @@
         <v>601</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="G56" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="H56" s="35"/>
-      <c r="I56" s="37">
+        <v>47</v>
+      </c>
+      <c r="G56" s="35"/>
+      <c r="H56" s="37">
         <v>320122</v>
       </c>
+      <c r="I56" s="37"/>
       <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37">
+      <c r="K56" s="37">
         <v>16006</v>
       </c>
+      <c r="L56" s="37"/>
       <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
+      <c r="N56" s="37">
+        <v>5121</v>
+      </c>
       <c r="O56" s="37">
         <v>5121</v>
       </c>
@@ -4824,13 +4372,10 @@
       <c r="R56" s="37">
         <v>5121</v>
       </c>
-      <c r="S56" s="37">
-        <v>5121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A57" s="37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B57" s="37">
         <v>8</v>
@@ -4842,30 +4387,30 @@
         <v>601</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="G57" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="H57" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="I57" s="37"/>
+        <v>47</v>
+      </c>
+      <c r="G57" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37">
+        <v>16621</v>
+      </c>
       <c r="J57" s="37">
         <v>16621</v>
       </c>
-      <c r="K57" s="37">
-        <v>16621</v>
-      </c>
-      <c r="L57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="17">
+        <v>400</v>
+      </c>
       <c r="M57" s="17">
         <v>400</v>
       </c>
-      <c r="N57" s="17">
-        <v>400</v>
+      <c r="N57" s="37">
+        <v>5318</v>
       </c>
       <c r="O57" s="37">
         <v>5318</v>
@@ -4879,13 +4424,10 @@
       <c r="R57" s="37">
         <v>5318</v>
       </c>
-      <c r="S57" s="37">
-        <v>5318</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A58" s="37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B58" s="37">
         <v>2</v>
@@ -4897,44 +4439,41 @@
         <v>602</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G58" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="H58" s="35"/>
+        <v>48</v>
+      </c>
+      <c r="G58" s="35"/>
+      <c r="H58" s="37"/>
       <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
+      <c r="J58" s="37">
+        <v>15481</v>
+      </c>
       <c r="K58" s="37">
-        <v>15481</v>
-      </c>
-      <c r="L58" s="37">
         <v>12385</v>
       </c>
+      <c r="L58" s="37"/>
       <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
+      <c r="N58" s="37">
+        <v>3344</v>
+      </c>
       <c r="O58" s="37">
-        <v>3344</v>
+        <v>4012</v>
       </c>
       <c r="P58" s="37">
-        <v>4012</v>
+        <v>4458</v>
       </c>
       <c r="Q58" s="37">
-        <v>4458</v>
+        <v>4904</v>
       </c>
       <c r="R58" s="37">
-        <v>4904</v>
-      </c>
-      <c r="S58" s="37">
         <v>5573</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A59" s="37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B59" s="37">
         <v>4</v>
@@ -4946,48 +4485,45 @@
         <v>602</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G59" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="H59" s="35"/>
+        <v>48</v>
+      </c>
+      <c r="G59" s="35"/>
+      <c r="H59" s="37">
+        <v>374816</v>
+      </c>
       <c r="I59" s="37">
-        <v>374816</v>
-      </c>
-      <c r="J59" s="37">
         <v>14992</v>
       </c>
+      <c r="J59" s="37"/>
       <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
+      <c r="L59" s="17">
+        <v>450</v>
+      </c>
       <c r="M59" s="17">
         <v>450</v>
       </c>
-      <c r="N59" s="17">
-        <v>450</v>
+      <c r="N59" s="37">
+        <v>4048</v>
       </c>
       <c r="O59" s="37">
-        <v>4048</v>
+        <v>4857</v>
       </c>
       <c r="P59" s="37">
-        <v>4857</v>
+        <v>5397</v>
       </c>
       <c r="Q59" s="37">
-        <v>5397</v>
+        <v>5937</v>
       </c>
       <c r="R59" s="37">
-        <v>5937</v>
-      </c>
-      <c r="S59" s="37">
         <v>6746</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A60" s="37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B60" s="37">
         <v>6</v>
@@ -4999,44 +4535,41 @@
         <v>602</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G60" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="H60" s="35"/>
-      <c r="I60" s="37"/>
+        <v>48</v>
+      </c>
+      <c r="G60" s="35"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37">
+        <v>17600</v>
+      </c>
       <c r="J60" s="37">
-        <v>17600</v>
-      </c>
-      <c r="K60" s="37">
         <v>22000</v>
       </c>
+      <c r="K60" s="37"/>
       <c r="L60" s="37"/>
       <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
+      <c r="N60" s="37">
+        <v>4752</v>
+      </c>
       <c r="O60" s="37">
-        <v>4752</v>
+        <v>5702</v>
       </c>
       <c r="P60" s="37">
-        <v>5702</v>
+        <v>6336</v>
       </c>
       <c r="Q60" s="37">
-        <v>6336</v>
+        <v>6969</v>
       </c>
       <c r="R60" s="37">
-        <v>6969</v>
-      </c>
-      <c r="S60" s="37">
         <v>7920</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A61" s="37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B61" s="37">
         <v>8</v>
@@ -5048,50 +4581,47 @@
         <v>602</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F61" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G61" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="H61" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="I61" s="37">
+        <v>48</v>
+      </c>
+      <c r="G61" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="H61" s="37">
         <v>505187</v>
       </c>
+      <c r="I61" s="37"/>
       <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37">
+      <c r="K61" s="37">
         <v>20207</v>
+      </c>
+      <c r="L61" s="17">
+        <v>450</v>
       </c>
       <c r="M61" s="17">
         <v>450</v>
       </c>
-      <c r="N61" s="17">
-        <v>450</v>
+      <c r="N61" s="37">
+        <v>5456</v>
       </c>
       <c r="O61" s="37">
-        <v>5456</v>
+        <v>6547</v>
       </c>
       <c r="P61" s="37">
-        <v>6547</v>
+        <v>7274</v>
       </c>
       <c r="Q61" s="37">
-        <v>7274</v>
+        <v>8002</v>
       </c>
       <c r="R61" s="37">
-        <v>8002</v>
-      </c>
-      <c r="S61" s="37">
         <v>9093</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A62" s="37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B62" s="37">
         <v>2</v>
@@ -5103,44 +4633,41 @@
         <v>603</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="G62" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="H62" s="35"/>
+        <v>49</v>
+      </c>
+      <c r="G62" s="35"/>
+      <c r="H62" s="37"/>
       <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
+      <c r="J62" s="37">
+        <v>14836</v>
+      </c>
       <c r="K62" s="37">
-        <v>14836</v>
-      </c>
-      <c r="L62" s="37">
         <v>18132</v>
       </c>
+      <c r="L62" s="37"/>
       <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
+      <c r="N62" s="37">
+        <v>3956</v>
+      </c>
       <c r="O62" s="37">
-        <v>3956</v>
+        <v>4747</v>
       </c>
       <c r="P62" s="37">
-        <v>4747</v>
+        <v>5275</v>
       </c>
       <c r="Q62" s="37">
-        <v>5275</v>
+        <v>5802</v>
       </c>
       <c r="R62" s="37">
-        <v>5802</v>
-      </c>
-      <c r="S62" s="37">
         <v>6593</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A63" s="37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B63" s="37">
         <v>4</v>
@@ -5152,48 +4679,45 @@
         <v>603</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="G63" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="H63" s="35"/>
+        <v>49</v>
+      </c>
+      <c r="G63" s="35"/>
+      <c r="H63" s="37">
+        <v>359188</v>
+      </c>
       <c r="I63" s="37">
-        <v>359188</v>
-      </c>
-      <c r="J63" s="37">
         <v>21950</v>
       </c>
+      <c r="J63" s="37"/>
       <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
+      <c r="L63" s="17">
+        <v>500</v>
+      </c>
       <c r="M63" s="17">
         <v>500</v>
       </c>
-      <c r="N63" s="17">
-        <v>500</v>
+      <c r="N63" s="37">
+        <v>4789</v>
       </c>
       <c r="O63" s="37">
-        <v>4789</v>
+        <v>5747</v>
       </c>
       <c r="P63" s="37">
-        <v>5747</v>
+        <v>6385</v>
       </c>
       <c r="Q63" s="37">
-        <v>6385</v>
+        <v>7024</v>
       </c>
       <c r="R63" s="37">
-        <v>7024</v>
-      </c>
-      <c r="S63" s="37">
         <v>7981</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A64" s="37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B64" s="37">
         <v>6</v>
@@ -5205,44 +4729,41 @@
         <v>603</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F64" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="G64" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="H64" s="35"/>
-      <c r="I64" s="37"/>
+        <v>49</v>
+      </c>
+      <c r="G64" s="35"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37">
+        <v>25767</v>
+      </c>
       <c r="J64" s="37">
-        <v>25767</v>
-      </c>
-      <c r="K64" s="37">
         <v>21082</v>
       </c>
+      <c r="K64" s="37"/>
       <c r="L64" s="37"/>
       <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
+      <c r="N64" s="37">
+        <v>5622</v>
+      </c>
       <c r="O64" s="37">
-        <v>5622</v>
+        <v>6746</v>
       </c>
       <c r="P64" s="37">
-        <v>6746</v>
+        <v>7496</v>
       </c>
       <c r="Q64" s="37">
-        <v>7496</v>
+        <v>8245</v>
       </c>
       <c r="R64" s="37">
-        <v>8245</v>
-      </c>
-      <c r="S64" s="37">
         <v>9370</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B65" s="37">
         <v>8</v>
@@ -5254,50 +4775,47 @@
         <v>603</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F65" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="G65" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="H65" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="I65" s="37">
+        <v>49</v>
+      </c>
+      <c r="G65" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H65" s="37">
         <v>484123</v>
       </c>
+      <c r="I65" s="37"/>
       <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37">
+      <c r="K65" s="37">
         <v>29585</v>
+      </c>
+      <c r="L65" s="17">
+        <v>500</v>
       </c>
       <c r="M65" s="17">
         <v>500</v>
       </c>
-      <c r="N65" s="17">
-        <v>500</v>
+      <c r="N65" s="37">
+        <v>6454</v>
       </c>
       <c r="O65" s="37">
-        <v>6454</v>
+        <v>7745</v>
       </c>
       <c r="P65" s="37">
-        <v>7745</v>
+        <v>8606</v>
       </c>
       <c r="Q65" s="37">
-        <v>8606</v>
+        <v>9467</v>
       </c>
       <c r="R65" s="37">
-        <v>9467</v>
-      </c>
-      <c r="S65" s="37">
         <v>10758</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A66" s="37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B66" s="37">
         <v>2</v>
@@ -5309,25 +4827,25 @@
         <v>604</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="G66" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="H66" s="35"/>
+        <v>50</v>
+      </c>
+      <c r="G66" s="35"/>
+      <c r="H66" s="37"/>
       <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
+      <c r="J66" s="37">
+        <v>23460</v>
+      </c>
       <c r="K66" s="37">
         <v>23460</v>
       </c>
-      <c r="L66" s="37">
-        <v>23460</v>
-      </c>
+      <c r="L66" s="37"/>
       <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
+      <c r="N66" s="37">
+        <v>7507</v>
+      </c>
       <c r="O66" s="37">
         <v>7507</v>
       </c>
@@ -5340,13 +4858,10 @@
       <c r="R66" s="37">
         <v>7507</v>
       </c>
-      <c r="S66" s="37">
-        <v>7507</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A67" s="37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B67" s="37">
         <v>4</v>
@@ -5358,28 +4873,28 @@
         <v>604</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="G67" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="H67" s="35"/>
+        <v>50</v>
+      </c>
+      <c r="G67" s="35"/>
+      <c r="H67" s="37">
+        <v>489600</v>
+      </c>
       <c r="I67" s="37">
-        <v>489600</v>
-      </c>
-      <c r="J67" s="37">
         <v>24480</v>
       </c>
+      <c r="J67" s="37"/>
       <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
+      <c r="L67" s="17">
+        <v>550</v>
+      </c>
       <c r="M67" s="17">
         <v>550</v>
       </c>
-      <c r="N67" s="17">
-        <v>550</v>
+      <c r="N67" s="37">
+        <v>7833</v>
       </c>
       <c r="O67" s="37">
         <v>7833</v>
@@ -5393,13 +4908,10 @@
       <c r="R67" s="37">
         <v>7833</v>
       </c>
-      <c r="S67" s="37">
-        <v>7833</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A68" s="37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B68" s="37">
         <v>6</v>
@@ -5411,25 +4923,25 @@
         <v>604</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="G68" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="H68" s="35"/>
-      <c r="I68" s="37">
+        <v>50</v>
+      </c>
+      <c r="G68" s="35"/>
+      <c r="H68" s="37">
         <v>530400</v>
       </c>
+      <c r="I68" s="37"/>
       <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37">
+      <c r="K68" s="37">
         <v>26520</v>
       </c>
+      <c r="L68" s="37"/>
       <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
+      <c r="N68" s="37">
+        <v>8486</v>
+      </c>
       <c r="O68" s="37">
         <v>8486</v>
       </c>
@@ -5442,13 +4954,10 @@
       <c r="R68" s="37">
         <v>8486</v>
       </c>
-      <c r="S68" s="37">
-        <v>8486</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:18" s="17" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B69" s="17">
         <v>8</v>
@@ -5460,30 +4969,30 @@
         <v>604</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F69" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="G69" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="H69" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="I69" s="14"/>
+        <v>50</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14">
+        <v>27540</v>
+      </c>
       <c r="J69" s="14">
         <v>27540</v>
       </c>
-      <c r="K69" s="14">
-        <v>27540</v>
-      </c>
-      <c r="L69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="17">
+        <v>550</v>
+      </c>
       <c r="M69" s="17">
         <v>550</v>
       </c>
-      <c r="N69" s="17">
-        <v>550</v>
+      <c r="N69" s="14">
+        <v>8812</v>
       </c>
       <c r="O69" s="14">
         <v>8812</v>
@@ -5495,9 +5004,6 @@
         <v>8812</v>
       </c>
       <c r="R69" s="14">
-        <v>8812</v>
-      </c>
-      <c r="S69" s="14">
         <v>8812</v>
       </c>
     </row>
@@ -5822,7 +5328,7 @@
         <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>7</v>
@@ -5853,10 +5359,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
@@ -5886,10 +5392,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O3"/>
       <c r="P3"/>
@@ -5916,10 +5422,10 @@
         <v>3</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
@@ -5946,7 +5452,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" t="str">
         <f>B2&amp;H2&amp;B3&amp;H3&amp;B4&amp;H4&amp;B5</f>
@@ -5977,10 +5483,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O6"/>
       <c r="P6"/>
@@ -6007,10 +5513,10 @@
         <v>2</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O7"/>
       <c r="P7"/>
@@ -6037,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O8"/>
       <c r="P8"/>
@@ -6067,7 +5573,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9" t="str">
         <f>B6&amp;H6&amp;B7&amp;H7&amp;B8&amp;H8&amp;B9</f>
@@ -6099,10 +5605,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O10"/>
       <c r="P10"/>
@@ -6129,10 +5635,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O11"/>
       <c r="P11"/>
@@ -6159,10 +5665,10 @@
         <v>3</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
@@ -6189,7 +5695,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K13" t="str">
         <f>B10&amp;H10&amp;B11&amp;H11&amp;B12&amp;H12&amp;B13</f>
@@ -6220,10 +5726,10 @@
         <v>5</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O14"/>
       <c r="P14"/>
@@ -6250,10 +5756,10 @@
         <v>6</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O15"/>
       <c r="P15"/>
@@ -6280,10 +5786,10 @@
         <v>7</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M16" s="23"/>
       <c r="O16"/>
@@ -6311,7 +5817,7 @@
         <v>8</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K17" t="str">
         <f>B14&amp;H14&amp;B15&amp;H15&amp;B16&amp;H16&amp;B17</f>
@@ -6343,10 +5849,10 @@
         <v>9</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O18"/>
       <c r="P18"/>
@@ -6373,10 +5879,10 @@
         <v>10</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O19"/>
       <c r="P19"/>
@@ -6403,10 +5909,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O20"/>
       <c r="P20"/>
@@ -6433,7 +5939,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K21" t="str">
         <f>B18&amp;H18&amp;B19&amp;H19&amp;B20&amp;H20&amp;B21</f>
@@ -6464,10 +5970,10 @@
         <v>1</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O22"/>
       <c r="P22"/>
@@ -6494,10 +6000,10 @@
         <v>2</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O23"/>
       <c r="P23"/>
@@ -6524,10 +6030,10 @@
         <v>3</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O24">
         <v>100</v>
@@ -6558,7 +6064,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K25" t="str">
         <f>B22&amp;H22&amp;B23&amp;H23&amp;B24&amp;H24&amp;B25</f>
@@ -6589,10 +6095,10 @@
         <v>5</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O26"/>
       <c r="P26"/>
@@ -6619,10 +6125,10 @@
         <v>6</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O27"/>
       <c r="P27"/>
@@ -6649,10 +6155,10 @@
         <v>7</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O28">
         <v>100</v>
@@ -6683,7 +6189,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K29" t="str">
         <f>B26&amp;H26&amp;B27&amp;H27&amp;B28&amp;H28&amp;B29</f>
@@ -6714,10 +6220,10 @@
         <v>9</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J30" s="30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O30"/>
       <c r="P30"/>
@@ -6744,10 +6250,10 @@
         <v>10</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O31">
         <v>100</v>
@@ -6778,10 +6284,10 @@
         <v>11</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O32"/>
       <c r="P32"/>
@@ -6808,7 +6314,7 @@
         <v>12</v>
       </c>
       <c r="J33" s="30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33" t="str">
         <f>B30&amp;H30&amp;B31&amp;H31&amp;B32&amp;H32&amp;B33</f>
@@ -6843,10 +6349,10 @@
         <v>13</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -6873,10 +6379,10 @@
         <v>14</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O35">
         <v>150</v>
@@ -6907,10 +6413,10 @@
         <v>15</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J36" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O36"/>
       <c r="P36"/>
@@ -6937,7 +6443,7 @@
         <v>16</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K37" t="str">
         <f>B34&amp;H34&amp;B35&amp;H35&amp;B36&amp;H36&amp;B37</f>
@@ -6972,10 +6478,10 @@
         <v>1</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J38" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O38"/>
       <c r="P38"/>
@@ -7002,10 +6508,10 @@
         <v>2</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J39" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O39">
         <v>200</v>
@@ -7036,10 +6542,10 @@
         <v>3</v>
       </c>
       <c r="H40" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J40" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O40"/>
       <c r="P40"/>
@@ -7066,7 +6572,7 @@
         <v>4</v>
       </c>
       <c r="J41" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K41" t="str">
         <f>B38&amp;H38&amp;B39&amp;H39&amp;B40&amp;H40&amp;B41</f>
@@ -7101,10 +6607,10 @@
         <v>5</v>
       </c>
       <c r="H42" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J42" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O42"/>
       <c r="P42"/>
@@ -7131,10 +6637,10 @@
         <v>6</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J43" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O43">
         <v>250</v>
@@ -7165,10 +6671,10 @@
         <v>7</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J44" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O44"/>
       <c r="P44"/>
@@ -7196,7 +6702,7 @@
       </c>
       <c r="H45" s="38"/>
       <c r="J45" s="31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K45" t="str">
         <f>B42&amp;H42&amp;B43&amp;H43&amp;B44&amp;H44&amp;B45</f>
@@ -7231,10 +6737,10 @@
         <v>9</v>
       </c>
       <c r="H46" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J46" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O46"/>
       <c r="P46"/>
@@ -7261,10 +6767,10 @@
         <v>10</v>
       </c>
       <c r="H47" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J47" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O47">
         <v>300</v>
@@ -7295,10 +6801,10 @@
         <v>11</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J48" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O48"/>
       <c r="P48"/>
@@ -7326,7 +6832,7 @@
       </c>
       <c r="H49" s="38"/>
       <c r="J49" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K49" t="str">
         <f>B46&amp;H46&amp;B47&amp;H47&amp;B48&amp;H48&amp;B49</f>
@@ -7361,10 +6867,10 @@
         <v>13</v>
       </c>
       <c r="H50" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J50" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O50"/>
       <c r="P50"/>
@@ -7391,10 +6897,10 @@
         <v>14</v>
       </c>
       <c r="H51" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J51" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O51">
         <v>350.00000000000006</v>
@@ -7425,10 +6931,10 @@
         <v>15</v>
       </c>
       <c r="H52" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J52" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O52"/>
       <c r="P52"/>
@@ -7455,7 +6961,7 @@
         <v>16</v>
       </c>
       <c r="J53" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53" t="str">
         <f>B50&amp;H50&amp;B51&amp;H51&amp;B52&amp;H52&amp;B53</f>
@@ -7490,10 +6996,10 @@
         <v>1</v>
       </c>
       <c r="H54" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J54" s="32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O54"/>
       <c r="P54"/>
@@ -7520,10 +7026,10 @@
         <v>2</v>
       </c>
       <c r="H55" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J55" s="32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O55">
         <v>400</v>
@@ -7554,10 +7060,10 @@
         <v>3</v>
       </c>
       <c r="H56" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J56" s="32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O56"/>
       <c r="P56"/>
@@ -7584,7 +7090,7 @@
         <v>4</v>
       </c>
       <c r="J57" s="32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57" t="str">
         <f>B54&amp;H54&amp;B55&amp;H55&amp;B56&amp;H56&amp;B57</f>
@@ -7619,10 +7125,10 @@
         <v>5</v>
       </c>
       <c r="H58" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J58" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O58"/>
       <c r="P58"/>
@@ -7649,10 +7155,10 @@
         <v>6</v>
       </c>
       <c r="H59" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J59" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O59">
         <v>450</v>
@@ -7683,10 +7189,10 @@
         <v>7</v>
       </c>
       <c r="H60" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J60" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O60"/>
       <c r="P60"/>
@@ -7713,7 +7219,7 @@
         <v>8</v>
       </c>
       <c r="J61" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K61" t="str">
         <f>B58&amp;H58&amp;B59&amp;H59&amp;B60&amp;H60&amp;B61</f>
@@ -7748,10 +7254,10 @@
         <v>9</v>
       </c>
       <c r="H62" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J62" s="32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O62"/>
       <c r="P62"/>
@@ -7778,10 +7284,10 @@
         <v>10</v>
       </c>
       <c r="H63" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J63" s="32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O63">
         <v>500</v>
@@ -7812,10 +7318,10 @@
         <v>11</v>
       </c>
       <c r="H64" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J64" s="32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O64"/>
       <c r="P64"/>
@@ -7842,7 +7348,7 @@
         <v>12</v>
       </c>
       <c r="J65" s="32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K65" t="str">
         <f>B62&amp;H62&amp;B63&amp;H63&amp;B64&amp;H64&amp;B65</f>
@@ -7877,10 +7383,10 @@
         <v>13</v>
       </c>
       <c r="H66" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J66" s="32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O66"/>
       <c r="P66"/>
@@ -7907,10 +7413,10 @@
         <v>14</v>
       </c>
       <c r="H67" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J67" s="32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O67">
         <v>550</v>
@@ -7941,10 +7447,10 @@
         <v>15</v>
       </c>
       <c r="H68" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J68" s="32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O68"/>
       <c r="P68"/>
@@ -7971,7 +7477,7 @@
         <v>16</v>
       </c>
       <c r="J69" s="32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K69" t="str">
         <f>B66&amp;H66&amp;B67&amp;H67&amp;B68&amp;H68&amp;B69</f>
